--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1573767.308848922</v>
+        <v>1570911.920515599</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8444415.160587985</v>
+        <v>8444421.381715732</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10785995.67453507</v>
+        <v>10785833.88489231</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96.95377689311783</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,16 +713,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>201.330287938294</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>32.94454038126188</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>164.6242057717098</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>92.14722804232342</v>
+        <v>22.11041309544132</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>279.0871554678067</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>62.83647259524198</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.46389722690864</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1534,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>168.2948769415664</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250812</v>
       </c>
     </row>
     <row r="14">
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>74.75769145492355</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.6898441249708</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>114.4471443498443</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>45.418395674675</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>17.25588147840217</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>42.73322656085642</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>67.41386939711209</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>209.567519332071</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.0402687184132</v>
+        <v>409.921996101757</v>
       </c>
       <c r="H26" t="n">
-        <v>285.5805435513399</v>
+        <v>284.3692841160095</v>
       </c>
       <c r="I26" t="n">
-        <v>7.594561284788057</v>
+        <v>3.034856231149348</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>89.10156188094693</v>
+        <v>86.40642462889345</v>
       </c>
       <c r="T26" t="n">
-        <v>200.0593924064816</v>
+        <v>199.541654027069</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9151935947663</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2646,13 +2646,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>134.5278481273043</v>
+        <v>134.4645666984962</v>
       </c>
       <c r="H27" t="n">
-        <v>85.04200907392681</v>
+        <v>84.43084369570134</v>
       </c>
       <c r="I27" t="n">
-        <v>2.579389070766666</v>
+        <v>0.4006205789092974</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>119.3833537044362</v>
+        <v>118.2079289193386</v>
       </c>
       <c r="T27" t="n">
-        <v>188.8156065720235</v>
+        <v>188.5605380059067</v>
       </c>
       <c r="U27" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7519774451384</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>126.5432370346877</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6304170232079</v>
+        <v>113.4756336236338</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>84.46192760898782</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>182.8784344308282</v>
+        <v>181.9538649099294</v>
       </c>
       <c r="T28" t="n">
-        <v>217.8595503594825</v>
+        <v>217.6328692562887</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1873776096144</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.0402687184132</v>
+        <v>409.921996101757</v>
       </c>
       <c r="H29" t="n">
-        <v>285.5805435513399</v>
+        <v>284.3692841160095</v>
       </c>
       <c r="I29" t="n">
-        <v>7.594561284788057</v>
+        <v>3.034856231149348</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>89.10156188094693</v>
+        <v>86.40642462889345</v>
       </c>
       <c r="T29" t="n">
-        <v>200.0593924064816</v>
+        <v>199.541654027069</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9151935947663</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2883,13 +2883,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>134.5278481273043</v>
+        <v>134.4645666984962</v>
       </c>
       <c r="H30" t="n">
-        <v>85.04200907392681</v>
+        <v>84.43084369570134</v>
       </c>
       <c r="I30" t="n">
-        <v>2.579389070766666</v>
+        <v>0.4006205789092974</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>119.3833537044362</v>
+        <v>118.2079289193386</v>
       </c>
       <c r="T30" t="n">
-        <v>188.8156065720235</v>
+        <v>188.5605380059067</v>
       </c>
       <c r="U30" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7519774451384</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.98166491406961</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>47.90159058360998</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6304170232079</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>141.2396273813004</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>84.46192760898782</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>71.15392492125488</v>
+        <v>68.76846803530518</v>
       </c>
       <c r="S31" t="n">
-        <v>182.8784344308282</v>
+        <v>181.9538649099294</v>
       </c>
       <c r="T31" t="n">
-        <v>217.8595503594825</v>
+        <v>217.6328692562887</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1873776096144</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.0402687184132</v>
+        <v>409.921996101757</v>
       </c>
       <c r="H32" t="n">
-        <v>285.5805435513398</v>
+        <v>284.3692841160095</v>
       </c>
       <c r="I32" t="n">
-        <v>7.59456128478763</v>
+        <v>3.034856231149348</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>89.10156188094668</v>
+        <v>86.40642462889345</v>
       </c>
       <c r="T32" t="n">
-        <v>200.0593924064815</v>
+        <v>199.541654027069</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9151935947663</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3120,13 +3120,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>134.5278481273042</v>
+        <v>134.4645666984962</v>
       </c>
       <c r="H33" t="n">
-        <v>85.04200907392675</v>
+        <v>84.43084369570134</v>
       </c>
       <c r="I33" t="n">
-        <v>2.579389070766467</v>
+        <v>0.4006205789092974</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>119.3833537044361</v>
+        <v>118.2079289193386</v>
       </c>
       <c r="T33" t="n">
-        <v>188.8156065720235</v>
+        <v>188.5605380059067</v>
       </c>
       <c r="U33" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7519774451384</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>46.37662268789951</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5773639990562</v>
       </c>
       <c r="H34" t="n">
-        <v>141.2396273813003</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>18.82098134140199</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>71.15392492125466</v>
+        <v>68.76846803530518</v>
       </c>
       <c r="S34" t="n">
-        <v>182.8784344308282</v>
+        <v>181.9538649099294</v>
       </c>
       <c r="T34" t="n">
-        <v>217.8595503594825</v>
+        <v>217.6328692562887</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1873776096144</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8432760127576</v>
+        <v>409.921996101757</v>
       </c>
       <c r="H35" t="n">
-        <v>283.5630920045443</v>
+        <v>284.3692841160095</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3.034856231149348</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081962</v>
+        <v>86.40642462889345</v>
       </c>
       <c r="T35" t="n">
-        <v>199.1970568374742</v>
+        <v>199.541654027069</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9151935947663</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3357,13 +3357,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4645666984962</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561455</v>
+        <v>84.43084369570134</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.4006205789092974</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.4255876952162</v>
+        <v>118.2079289193386</v>
       </c>
       <c r="T36" t="n">
-        <v>188.3907690366107</v>
+        <v>188.5605380059067</v>
       </c>
       <c r="U36" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7519774451384</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>51.52148311323614</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>47.90159058360943</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108355</v>
+        <v>68.76846803530518</v>
       </c>
       <c r="S37" t="n">
-        <v>181.338488358459</v>
+        <v>181.9538649099294</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4819944627618</v>
+        <v>217.6328692562887</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1873776096144</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8432760127576</v>
+        <v>409.921996101757</v>
       </c>
       <c r="H38" t="n">
-        <v>283.5630920045443</v>
+        <v>284.3692841160095</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3.034856231149348</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081962</v>
+        <v>86.40642462889345</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1970568374742</v>
+        <v>199.541654027069</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9088959876443</v>
+        <v>250.9151935947663</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3594,13 +3594,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4645666984962</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561455</v>
+        <v>84.43084369570134</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.4006205789092974</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.4255876952162</v>
+        <v>118.2079289193386</v>
       </c>
       <c r="T39" t="n">
-        <v>188.3907690366107</v>
+        <v>188.5605380059067</v>
       </c>
       <c r="U39" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7519774451384</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3664,13 +3664,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>3.132302579345091</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>46.88867595997107</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>68.76846803530518</v>
       </c>
       <c r="S40" t="n">
-        <v>181.338488358459</v>
+        <v>181.9538649099294</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4819944627618</v>
+        <v>217.6328692562887</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1873776096144</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8432760127576</v>
+        <v>409.921996101757</v>
       </c>
       <c r="H41" t="n">
-        <v>283.563092004544</v>
+        <v>284.3692841160095</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>3.034856231149348</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081895</v>
+        <v>86.40642462889345</v>
       </c>
       <c r="T41" t="n">
-        <v>199.197056837474</v>
+        <v>199.541654027069</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9151935947663</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3831,13 +3831,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4645666984962</v>
       </c>
       <c r="H42" t="n">
-        <v>84.0240632056144</v>
+        <v>84.43084369570134</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.4006205789092974</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.4255876952159</v>
+        <v>118.2079289193386</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3907690366106</v>
+        <v>188.5605380059067</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7519774451384</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>3.132302579358147</v>
+        <v>49.57104768318125</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5773639990562</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>68.76846803530518</v>
       </c>
       <c r="S43" t="n">
-        <v>181.3384883584587</v>
+        <v>181.9538649099294</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4819944627617</v>
+        <v>217.6328692562887</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1873776096144</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.921996101757</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>284.3692841160095</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3.034856231149348</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>86.40642462889345</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.541654027069</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9151935947663</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4645666984962</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.43084369570134</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.4006205789092974</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>118.2079289193386</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.5605380059067</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7519774451384</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4135,16 +4135,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>123.981557645678</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>113.4756336236338</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.9538649099294</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.6328692562887</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1873776096144</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2149.375138862102</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>2247.308246834948</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,19 +4410,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1744.232431292459</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="C5" t="n">
-        <v>1375.269914352047</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D5" t="n">
-        <v>1017.004215745297</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>631.2159631470527</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>220.2300583574451</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4598,19 +4598,19 @@
         <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332393</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X5" t="n">
-        <v>2520.971603332393</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="Y5" t="n">
-        <v>2130.832271356581</v>
+        <v>1583.378275356799</v>
       </c>
     </row>
     <row r="6">
@@ -4653,16 +4653,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541695</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541695</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="X7" t="n">
-        <v>444.0275768541695</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="Y7" t="n">
-        <v>444.0275768541695</v>
+        <v>76.27673242182033</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2013.317548404538</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C8" t="n">
-        <v>1644.355031464126</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D8" t="n">
-        <v>1286.089332857376</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>900.3010802591316</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>489.315175469524</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4799,16 +4799,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2457.500418892754</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2457.500418892754</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2126.437531549183</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1773.668876279069</v>
       </c>
       <c r="X8" t="n">
-        <v>2013.317548404538</v>
+        <v>1773.668876279069</v>
       </c>
       <c r="Y8" t="n">
-        <v>2013.317548404538</v>
+        <v>1773.668876279069</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4872,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940988</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117057</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>283.2093037137953</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2095034521277</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>114.2095034521277</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5039,28 +5039,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2730.494725501681</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3610.459375831136</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>390.3640755286978</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>390.3640755286978</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>390.3640755286978</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
         <v>95.56103444839442</v>
@@ -5197,7 +5197,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
         <v>344.6708498442064</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="W13" t="n">
-        <v>1020.794670400485</v>
+        <v>619.85598414138</v>
       </c>
       <c r="X13" t="n">
-        <v>792.8051195024676</v>
+        <v>391.8664332433626</v>
       </c>
       <c r="Y13" t="n">
-        <v>572.0125403589375</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5261,10 +5261,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001584</v>
@@ -5276,25 +5276,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O14" t="n">
-        <v>3944.053400686433</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4338.827767043611</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5321,7 +5321,7 @@
         <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>260.9043113423046</v>
+        <v>171.0738540998323</v>
       </c>
       <c r="C16" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5434,13 +5434,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5455,31 +5455,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.7880996267</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208127</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858347</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.9043113423046</v>
+        <v>171.0738540998323</v>
       </c>
     </row>
     <row r="17">
@@ -5504,34 +5504,34 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>685.1208104866384</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L17" t="n">
-        <v>1549.639626139993</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M17" t="n">
-        <v>2528.189928969822</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N17" t="n">
-        <v>3507.942201196468</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O17" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5595,10 +5595,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>844.8098170227823</v>
+        <v>414.6138567886368</v>
       </c>
       <c r="C19" t="n">
-        <v>675.8736340948755</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D19" t="n">
-        <v>525.7569946825397</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5671,16 +5671,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953301</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
         <v>1346.796070598116</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1764.65758193153</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1764.65758193153</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>1475.24041189457</v>
+        <v>863.3959868301843</v>
       </c>
       <c r="X19" t="n">
-        <v>1247.250860996552</v>
+        <v>635.4064359321669</v>
       </c>
       <c r="Y19" t="n">
-        <v>1026.458281853022</v>
+        <v>414.6138567886368</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,31 +5750,31 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>351.3014367967911</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>685.1208104866375</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1549.639626139992</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2528.189928969821</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N20" t="n">
-        <v>3507.942201196468</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075804</v>
+        <v>3876.027181978647</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
         <v>4667.761053946815</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>877.1197344942216</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C22" t="n">
-        <v>708.1835515663147</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D22" t="n">
-        <v>558.0669121539789</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5923,7 +5923,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862231</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1866.513008862231</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1577.410141987875</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V22" t="n">
-        <v>1322.725653781988</v>
+        <v>999.103611420813</v>
       </c>
       <c r="W22" t="n">
-        <v>1279.560778467991</v>
+        <v>709.6864413838523</v>
       </c>
       <c r="X22" t="n">
-        <v>1279.560778467991</v>
+        <v>481.696890485835</v>
       </c>
       <c r="Y22" t="n">
-        <v>1058.768199324461</v>
+        <v>260.9043113423049</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551634</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074199</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972664</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
         <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2016.310259422546</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903278</v>
+        <v>3008.107474639232</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232733</v>
+        <v>3888.072124968687</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679679</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6063,16 +6063,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>432.2000540015825</v>
+        <v>95.56103444839439</v>
       </c>
       <c r="C25" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6160,7 +6160,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1606.732307116217</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1606.732307116217</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1352.04781891033</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>1062.63064887337</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>834.6410979753523</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>613.8485188318222</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2328.48212442563</v>
+        <v>2322.345571287678</v>
       </c>
       <c r="C26" t="n">
-        <v>1959.519607485219</v>
+        <v>1953.383054347266</v>
       </c>
       <c r="D26" t="n">
-        <v>1601.253908878468</v>
+        <v>1595.117355740516</v>
       </c>
       <c r="E26" t="n">
-        <v>1215.465656280224</v>
+        <v>1209.329103142272</v>
       </c>
       <c r="F26" t="n">
-        <v>804.4797514906168</v>
+        <v>798.3431983526643</v>
       </c>
       <c r="G26" t="n">
-        <v>390.2976618760576</v>
+        <v>384.2805760276569</v>
       </c>
       <c r="H26" t="n">
-        <v>101.8324663696537</v>
+        <v>97.03887490037474</v>
       </c>
       <c r="I26" t="n">
-        <v>94.16119234461522</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J26" t="n">
-        <v>357.1047532886064</v>
+        <v>366.8547825927167</v>
       </c>
       <c r="K26" t="n">
-        <v>801.9275083030684</v>
+        <v>826.5718107645519</v>
       </c>
       <c r="L26" t="n">
-        <v>1390.671231675072</v>
+        <v>1433.793197030001</v>
       </c>
       <c r="M26" t="n">
-        <v>2378.953612054111</v>
+        <v>2141.113425729799</v>
       </c>
       <c r="N26" t="n">
-        <v>3081.440188028841</v>
+        <v>2864.492643589323</v>
       </c>
       <c r="O26" t="n">
-        <v>3731.443080300297</v>
+        <v>3685.214429498648</v>
       </c>
       <c r="P26" t="n">
-        <v>4251.704509646627</v>
+        <v>4222.313531459754</v>
       </c>
       <c r="Q26" t="n">
-        <v>4594.226429670195</v>
+        <v>4577.479842394936</v>
       </c>
       <c r="R26" t="n">
-        <v>4708.059617230761</v>
+        <v>4698.668177788972</v>
       </c>
       <c r="S26" t="n">
-        <v>4618.058039573238</v>
+        <v>4611.388960992109</v>
       </c>
       <c r="T26" t="n">
-        <v>4415.977845223257</v>
+        <v>4409.83173470214</v>
       </c>
       <c r="U26" t="n">
-        <v>4162.518597340329</v>
+        <v>4156.382044202376</v>
       </c>
       <c r="V26" t="n">
-        <v>3831.455709996758</v>
+        <v>3825.319156858805</v>
       </c>
       <c r="W26" t="n">
-        <v>3478.687054726644</v>
+        <v>3472.550501588691</v>
       </c>
       <c r="X26" t="n">
-        <v>3105.221296465564</v>
+        <v>3099.084743327611</v>
       </c>
       <c r="Y26" t="n">
-        <v>2715.081964489752</v>
+        <v>2708.9454113518</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>947.713822318087</v>
+        <v>944.6439578738058</v>
       </c>
       <c r="C27" t="n">
-        <v>773.26079303696</v>
+        <v>770.1909285926788</v>
       </c>
       <c r="D27" t="n">
-        <v>624.3263833757087</v>
+        <v>621.2565189314275</v>
       </c>
       <c r="E27" t="n">
-        <v>465.0889283702533</v>
+        <v>462.0190639259721</v>
       </c>
       <c r="F27" t="n">
-        <v>318.5543703971382</v>
+        <v>315.484505952857</v>
       </c>
       <c r="G27" t="n">
-        <v>182.6676551170329</v>
+        <v>179.6617113079114</v>
       </c>
       <c r="H27" t="n">
-        <v>96.76663585044014</v>
+        <v>94.37803080720296</v>
       </c>
       <c r="I27" t="n">
-        <v>94.16119234461522</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J27" t="n">
-        <v>231.9507289421374</v>
+        <v>237.6818203523167</v>
       </c>
       <c r="K27" t="n">
-        <v>545.6098185067152</v>
+        <v>561.4572872887501</v>
       </c>
       <c r="L27" t="n">
-        <v>1013.685713517274</v>
+        <v>693.458891728258</v>
       </c>
       <c r="M27" t="n">
-        <v>1579.265073453201</v>
+        <v>1274.911981755504</v>
       </c>
       <c r="N27" t="n">
-        <v>2038.229194703016</v>
+        <v>1886.16304982385</v>
       </c>
       <c r="O27" t="n">
-        <v>2560.279010110499</v>
+        <v>1886.16304982385</v>
       </c>
       <c r="P27" t="n">
-        <v>2560.279010110499</v>
+        <v>2297.784122796872</v>
       </c>
       <c r="Q27" t="n">
-        <v>2560.279010110499</v>
+        <v>2523.022712863114</v>
       </c>
       <c r="R27" t="n">
-        <v>2560.279010110499</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="S27" t="n">
-        <v>2439.689763944401</v>
+        <v>2436.358049178896</v>
       </c>
       <c r="T27" t="n">
-        <v>2248.966929023165</v>
+        <v>2245.892859273939</v>
       </c>
       <c r="U27" t="n">
-        <v>2020.930423268586</v>
+        <v>2017.860558824305</v>
       </c>
       <c r="V27" t="n">
-        <v>1785.778315036843</v>
+        <v>1782.708450592562</v>
       </c>
       <c r="W27" t="n">
-        <v>1531.540958308642</v>
+        <v>1528.47109386436</v>
       </c>
       <c r="X27" t="n">
-        <v>1323.689458103109</v>
+        <v>1320.619593658828</v>
       </c>
       <c r="Y27" t="n">
-        <v>1115.929159338155</v>
+        <v>1112.859294893874</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>474.6011738263157</v>
+        <v>527.6480380411066</v>
       </c>
       <c r="C28" t="n">
-        <v>474.6011738263157</v>
+        <v>358.7118551131997</v>
       </c>
       <c r="D28" t="n">
-        <v>474.6011738263157</v>
+        <v>208.5952157008639</v>
       </c>
       <c r="E28" t="n">
-        <v>474.6011738263157</v>
+        <v>208.5952157008639</v>
       </c>
       <c r="F28" t="n">
-        <v>346.7797222761261</v>
+        <v>208.5952157008639</v>
       </c>
       <c r="G28" t="n">
-        <v>179.4762707375322</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="H28" t="n">
-        <v>179.4762707375322</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="I28" t="n">
-        <v>94.16119234461522</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J28" t="n">
-        <v>166.9584435603206</v>
+        <v>170.4839550909369</v>
       </c>
       <c r="K28" t="n">
-        <v>416.4235264532471</v>
+        <v>426.0511968217956</v>
       </c>
       <c r="L28" t="n">
-        <v>791.1793793371888</v>
+        <v>808.6157121185345</v>
       </c>
       <c r="M28" t="n">
-        <v>1196.696004649982</v>
+        <v>1222.365477090362</v>
       </c>
       <c r="N28" t="n">
-        <v>1598.004967408914</v>
+        <v>1631.711813849209</v>
       </c>
       <c r="O28" t="n">
-        <v>1952.662452740132</v>
+        <v>1993.793114956028</v>
       </c>
       <c r="P28" t="n">
-        <v>2232.61251818597</v>
+        <v>2280.095537301697</v>
       </c>
       <c r="Q28" t="n">
-        <v>2343.000352396752</v>
+        <v>2394.881414161633</v>
       </c>
       <c r="R28" t="n">
-        <v>2343.000352396752</v>
+        <v>2394.881414161633</v>
       </c>
       <c r="S28" t="n">
-        <v>2158.27466105248</v>
+        <v>2211.08963142433</v>
       </c>
       <c r="T28" t="n">
-        <v>1938.214509174215</v>
+        <v>1991.258450357372</v>
       </c>
       <c r="U28" t="n">
-        <v>1649.133426940951</v>
+        <v>1702.180291155742</v>
       </c>
       <c r="V28" t="n">
-        <v>1394.448938735064</v>
+        <v>1447.495802949855</v>
       </c>
       <c r="W28" t="n">
-        <v>1105.031768698103</v>
+        <v>1158.078632912894</v>
       </c>
       <c r="X28" t="n">
-        <v>877.0422178000858</v>
+        <v>930.0890820148765</v>
       </c>
       <c r="Y28" t="n">
-        <v>656.2496386565557</v>
+        <v>709.2965028713463</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2328.48212442563</v>
+        <v>2322.345571287678</v>
       </c>
       <c r="C29" t="n">
-        <v>1959.519607485219</v>
+        <v>1953.383054347266</v>
       </c>
       <c r="D29" t="n">
-        <v>1601.253908878468</v>
+        <v>1595.117355740516</v>
       </c>
       <c r="E29" t="n">
-        <v>1215.465656280224</v>
+        <v>1209.329103142272</v>
       </c>
       <c r="F29" t="n">
-        <v>804.4797514906168</v>
+        <v>798.3431983526643</v>
       </c>
       <c r="G29" t="n">
-        <v>390.2976618760576</v>
+        <v>384.2805760276569</v>
       </c>
       <c r="H29" t="n">
-        <v>101.8324663696537</v>
+        <v>97.03887490037474</v>
       </c>
       <c r="I29" t="n">
-        <v>94.16119234461522</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J29" t="n">
-        <v>357.1047532886064</v>
+        <v>366.8547825927167</v>
       </c>
       <c r="K29" t="n">
-        <v>801.9275083030684</v>
+        <v>826.5718107645519</v>
       </c>
       <c r="L29" t="n">
-        <v>1390.671231675072</v>
+        <v>1433.793197030001</v>
       </c>
       <c r="M29" t="n">
-        <v>2378.953612054111</v>
+        <v>2141.113425729799</v>
       </c>
       <c r="N29" t="n">
-        <v>3081.440188028841</v>
+        <v>2864.492643589323</v>
       </c>
       <c r="O29" t="n">
-        <v>3731.443080300297</v>
+        <v>3534.223865147018</v>
       </c>
       <c r="P29" t="n">
-        <v>4251.704509646627</v>
+        <v>4222.313531459754</v>
       </c>
       <c r="Q29" t="n">
-        <v>4594.226429670195</v>
+        <v>4577.479842394936</v>
       </c>
       <c r="R29" t="n">
-        <v>4708.059617230761</v>
+        <v>4698.668177788972</v>
       </c>
       <c r="S29" t="n">
-        <v>4618.058039573238</v>
+        <v>4611.388960992109</v>
       </c>
       <c r="T29" t="n">
-        <v>4415.977845223257</v>
+        <v>4409.83173470214</v>
       </c>
       <c r="U29" t="n">
-        <v>4162.518597340329</v>
+        <v>4156.382044202376</v>
       </c>
       <c r="V29" t="n">
-        <v>3831.455709996758</v>
+        <v>3825.319156858805</v>
       </c>
       <c r="W29" t="n">
-        <v>3478.687054726644</v>
+        <v>3472.550501588691</v>
       </c>
       <c r="X29" t="n">
-        <v>3105.221296465564</v>
+        <v>3099.084743327611</v>
       </c>
       <c r="Y29" t="n">
-        <v>2715.081964489752</v>
+        <v>2708.9454113518</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>947.713822318087</v>
+        <v>944.6439578738058</v>
       </c>
       <c r="C30" t="n">
-        <v>773.26079303696</v>
+        <v>770.1909285926788</v>
       </c>
       <c r="D30" t="n">
-        <v>624.3263833757087</v>
+        <v>621.2565189314275</v>
       </c>
       <c r="E30" t="n">
-        <v>465.0889283702533</v>
+        <v>462.0190639259721</v>
       </c>
       <c r="F30" t="n">
-        <v>318.5543703971382</v>
+        <v>315.484505952857</v>
       </c>
       <c r="G30" t="n">
-        <v>182.6676551170329</v>
+        <v>179.6617113079114</v>
       </c>
       <c r="H30" t="n">
-        <v>96.76663585044014</v>
+        <v>94.37803080720296</v>
       </c>
       <c r="I30" t="n">
-        <v>94.16119234461522</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J30" t="n">
-        <v>231.9507289421374</v>
+        <v>237.6818203523167</v>
       </c>
       <c r="K30" t="n">
-        <v>545.6098185067152</v>
+        <v>237.6818203523167</v>
       </c>
       <c r="L30" t="n">
-        <v>1013.685713517274</v>
+        <v>719.3604331778442</v>
       </c>
       <c r="M30" t="n">
-        <v>1579.265073453201</v>
+        <v>1300.81352320509</v>
       </c>
       <c r="N30" t="n">
-        <v>2160.621074764547</v>
+        <v>1349.207535329233</v>
       </c>
       <c r="O30" t="n">
-        <v>2160.621074764547</v>
+        <v>1886.16304982385</v>
       </c>
       <c r="P30" t="n">
-        <v>2560.279010110499</v>
+        <v>2297.784122796872</v>
       </c>
       <c r="Q30" t="n">
-        <v>2560.279010110499</v>
+        <v>2523.022712863114</v>
       </c>
       <c r="R30" t="n">
-        <v>2560.279010110499</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="S30" t="n">
-        <v>2439.689763944401</v>
+        <v>2436.358049178896</v>
       </c>
       <c r="T30" t="n">
-        <v>2248.966929023165</v>
+        <v>2245.892859273939</v>
       </c>
       <c r="U30" t="n">
-        <v>2020.930423268586</v>
+        <v>2017.860558824305</v>
       </c>
       <c r="V30" t="n">
-        <v>1785.778315036843</v>
+        <v>1782.708450592562</v>
       </c>
       <c r="W30" t="n">
-        <v>1531.540958308642</v>
+        <v>1528.47109386436</v>
       </c>
       <c r="X30" t="n">
-        <v>1323.689458103109</v>
+        <v>1320.619593658828</v>
       </c>
       <c r="Y30" t="n">
-        <v>1115.929159338155</v>
+        <v>1112.859294893874</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>489.4460125602678</v>
+        <v>458.1849390155462</v>
       </c>
       <c r="C31" t="n">
-        <v>489.4460125602678</v>
+        <v>289.2487560876393</v>
       </c>
       <c r="D31" t="n">
-        <v>489.4460125602678</v>
+        <v>240.8633110536898</v>
       </c>
       <c r="E31" t="n">
-        <v>489.4460125602678</v>
+        <v>240.8633110536898</v>
       </c>
       <c r="F31" t="n">
-        <v>489.4460125602678</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="G31" t="n">
-        <v>322.1425610216739</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="H31" t="n">
-        <v>179.4762707375322</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="I31" t="n">
-        <v>94.16119234461522</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J31" t="n">
-        <v>166.9584435603206</v>
+        <v>170.483955090937</v>
       </c>
       <c r="K31" t="n">
-        <v>416.4235264532471</v>
+        <v>426.0511968217957</v>
       </c>
       <c r="L31" t="n">
-        <v>791.1793793371889</v>
+        <v>808.6157121185344</v>
       </c>
       <c r="M31" t="n">
-        <v>1196.696004649982</v>
+        <v>1222.365477090362</v>
       </c>
       <c r="N31" t="n">
-        <v>1598.004967408913</v>
+        <v>1631.711813849209</v>
       </c>
       <c r="O31" t="n">
-        <v>1952.662452740132</v>
+        <v>1993.793114956028</v>
       </c>
       <c r="P31" t="n">
-        <v>2232.61251818597</v>
+        <v>2280.095537301697</v>
       </c>
       <c r="Q31" t="n">
-        <v>2343.000352396751</v>
+        <v>2394.881414161633</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.12770096114</v>
+        <v>2325.418315136073</v>
       </c>
       <c r="S31" t="n">
-        <v>2086.402009616869</v>
+        <v>2141.62653239877</v>
       </c>
       <c r="T31" t="n">
-        <v>1866.341857738604</v>
+        <v>1921.795351331812</v>
       </c>
       <c r="U31" t="n">
-        <v>1577.26077550534</v>
+        <v>1632.717192130181</v>
       </c>
       <c r="V31" t="n">
-        <v>1322.576287299453</v>
+        <v>1378.032703924294</v>
       </c>
       <c r="W31" t="n">
-        <v>1033.159117262492</v>
+        <v>1088.615533887333</v>
       </c>
       <c r="X31" t="n">
-        <v>805.1695663644743</v>
+        <v>860.6259829893161</v>
       </c>
       <c r="Y31" t="n">
-        <v>584.3769872209442</v>
+        <v>639.8334038457859</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2328.482124425629</v>
+        <v>2322.345571287678</v>
       </c>
       <c r="C32" t="n">
-        <v>1959.519607485218</v>
+        <v>1953.383054347267</v>
       </c>
       <c r="D32" t="n">
-        <v>1601.253908878467</v>
+        <v>1595.117355740517</v>
       </c>
       <c r="E32" t="n">
-        <v>1215.465656280223</v>
+        <v>1209.329103142273</v>
       </c>
       <c r="F32" t="n">
-        <v>804.4797514906154</v>
+        <v>798.3431983526648</v>
       </c>
       <c r="G32" t="n">
-        <v>390.2976618760567</v>
+        <v>384.2805760276569</v>
       </c>
       <c r="H32" t="n">
-        <v>101.8324663696532</v>
+        <v>97.03887490037474</v>
       </c>
       <c r="I32" t="n">
-        <v>94.16119234461519</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J32" t="n">
-        <v>357.1047532886073</v>
+        <v>366.8547825927167</v>
       </c>
       <c r="K32" t="n">
-        <v>1103.44962021574</v>
+        <v>826.5718107645519</v>
       </c>
       <c r="L32" t="n">
-        <v>1692.193343587745</v>
+        <v>1433.793197030001</v>
       </c>
       <c r="M32" t="n">
-        <v>2378.953612054103</v>
+        <v>2141.113425729799</v>
       </c>
       <c r="N32" t="n">
-        <v>3081.440188028835</v>
+        <v>3015.483207940953</v>
       </c>
       <c r="O32" t="n">
-        <v>3731.443080300293</v>
+        <v>3685.214429498648</v>
       </c>
       <c r="P32" t="n">
-        <v>4251.704509646625</v>
+        <v>4222.313531459754</v>
       </c>
       <c r="Q32" t="n">
-        <v>4594.226429670193</v>
+        <v>4577.479842394936</v>
       </c>
       <c r="R32" t="n">
-        <v>4708.05961723076</v>
+        <v>4698.668177788972</v>
       </c>
       <c r="S32" t="n">
-        <v>4618.058039573237</v>
+        <v>4611.38896099211</v>
       </c>
       <c r="T32" t="n">
-        <v>4415.977845223255</v>
+        <v>4409.831734702141</v>
       </c>
       <c r="U32" t="n">
-        <v>4162.518597340328</v>
+        <v>4156.382044202377</v>
       </c>
       <c r="V32" t="n">
-        <v>3831.455709996757</v>
+        <v>3825.319156858806</v>
       </c>
       <c r="W32" t="n">
-        <v>3478.687054726643</v>
+        <v>3472.550501588692</v>
       </c>
       <c r="X32" t="n">
-        <v>3105.221296465563</v>
+        <v>3099.084743327612</v>
       </c>
       <c r="Y32" t="n">
-        <v>2715.081964489751</v>
+        <v>2708.9454113518</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>947.7138223180867</v>
+        <v>944.6439578738058</v>
       </c>
       <c r="C33" t="n">
-        <v>773.2607930369597</v>
+        <v>770.1909285926788</v>
       </c>
       <c r="D33" t="n">
-        <v>624.3263833757085</v>
+        <v>621.2565189314275</v>
       </c>
       <c r="E33" t="n">
-        <v>465.0889283702529</v>
+        <v>462.0190639259721</v>
       </c>
       <c r="F33" t="n">
-        <v>318.5543703971379</v>
+        <v>315.484505952857</v>
       </c>
       <c r="G33" t="n">
-        <v>182.6676551170326</v>
+        <v>179.6617113079114</v>
       </c>
       <c r="H33" t="n">
-        <v>96.7666358504399</v>
+        <v>94.37803080720296</v>
       </c>
       <c r="I33" t="n">
-        <v>94.16119234461519</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J33" t="n">
-        <v>94.16119234461519</v>
+        <v>119.1831221002898</v>
       </c>
       <c r="K33" t="n">
-        <v>407.820281909194</v>
+        <v>119.1831221002898</v>
       </c>
       <c r="L33" t="n">
-        <v>407.820281909194</v>
+        <v>600.8617349258174</v>
       </c>
       <c r="M33" t="n">
-        <v>973.3996418451222</v>
+        <v>1182.314824953063</v>
       </c>
       <c r="N33" t="n">
-        <v>1421.329709979372</v>
+        <v>1793.565893021409</v>
       </c>
       <c r="O33" t="n">
-        <v>1943.379525386856</v>
+        <v>2330.521407516027</v>
       </c>
       <c r="P33" t="n">
-        <v>2343.037460732809</v>
+        <v>2330.521407516027</v>
       </c>
       <c r="Q33" t="n">
-        <v>2560.279010110498</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="R33" t="n">
-        <v>2560.279010110498</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="S33" t="n">
-        <v>2439.689763944401</v>
+        <v>2436.358049178896</v>
       </c>
       <c r="T33" t="n">
-        <v>2248.966929023165</v>
+        <v>2245.892859273939</v>
       </c>
       <c r="U33" t="n">
-        <v>2020.930423268586</v>
+        <v>2017.860558824305</v>
       </c>
       <c r="V33" t="n">
-        <v>1785.778315036843</v>
+        <v>1782.708450592562</v>
       </c>
       <c r="W33" t="n">
-        <v>1531.540958308641</v>
+        <v>1528.47109386436</v>
       </c>
       <c r="X33" t="n">
-        <v>1323.689458103109</v>
+        <v>1320.619593658828</v>
       </c>
       <c r="Y33" t="n">
-        <v>1115.929159338155</v>
+        <v>1112.859294893874</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>402.7285223907097</v>
+        <v>458.1849390155453</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7285223907097</v>
+        <v>411.3398655934246</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7285223907097</v>
+        <v>261.2232261810888</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7285223907097</v>
+        <v>261.2232261810888</v>
       </c>
       <c r="F34" t="n">
-        <v>255.8385748927994</v>
+        <v>261.2232261810888</v>
       </c>
       <c r="G34" t="n">
-        <v>255.8385748927994</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="H34" t="n">
-        <v>113.1722846086576</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="I34" t="n">
-        <v>94.16119234461519</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J34" t="n">
-        <v>166.9584435603208</v>
+        <v>170.4839550909369</v>
       </c>
       <c r="K34" t="n">
-        <v>416.4235264532479</v>
+        <v>426.0511968217956</v>
       </c>
       <c r="L34" t="n">
-        <v>791.1793793371904</v>
+        <v>808.6157121185342</v>
       </c>
       <c r="M34" t="n">
-        <v>1196.696004649984</v>
+        <v>1222.365477090362</v>
       </c>
       <c r="N34" t="n">
-        <v>1598.004967408916</v>
+        <v>1631.711813849208</v>
       </c>
       <c r="O34" t="n">
-        <v>1952.662452740136</v>
+        <v>1993.793114956027</v>
       </c>
       <c r="P34" t="n">
-        <v>2232.612518185974</v>
+        <v>2280.095537301697</v>
       </c>
       <c r="Q34" t="n">
-        <v>2343.000352396756</v>
+        <v>2394.881414161633</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.127700961145</v>
+        <v>2325.418315136072</v>
       </c>
       <c r="S34" t="n">
-        <v>2086.402009616874</v>
+        <v>2141.626532398769</v>
       </c>
       <c r="T34" t="n">
-        <v>1866.341857738609</v>
+        <v>1921.795351331811</v>
       </c>
       <c r="U34" t="n">
-        <v>1577.260775505345</v>
+        <v>1632.71719213018</v>
       </c>
       <c r="V34" t="n">
-        <v>1322.576287299457</v>
+        <v>1378.032703924293</v>
       </c>
       <c r="W34" t="n">
-        <v>1033.159117262497</v>
+        <v>1088.615533887333</v>
       </c>
       <c r="X34" t="n">
-        <v>805.1695663644795</v>
+        <v>860.6259829893152</v>
       </c>
       <c r="Y34" t="n">
-        <v>584.3769872209493</v>
+        <v>639.833403845785</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.261193831368</v>
+        <v>2322.345571287678</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890959</v>
+        <v>1953.383054347266</v>
       </c>
       <c r="D35" t="n">
-        <v>1591.032978284208</v>
+        <v>1595.117355740516</v>
       </c>
       <c r="E35" t="n">
-        <v>1205.244725685964</v>
+        <v>1209.329103142272</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963564</v>
+        <v>798.3431983526641</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127629</v>
+        <v>384.2805760276569</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160701</v>
+        <v>97.03887490037471</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160701</v>
+        <v>93.97336355577941</v>
       </c>
       <c r="J35" t="n">
-        <v>373.34422365072</v>
+        <v>366.8547825927167</v>
       </c>
       <c r="K35" t="n">
-        <v>842.974607438402</v>
+        <v>826.5718107645519</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944177</v>
+        <v>1433.793197030001</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883215</v>
+        <v>2141.113425729799</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.783927800321</v>
+        <v>2864.492643589323</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.64596425946</v>
+        <v>3685.214429498647</v>
       </c>
       <c r="P35" t="n">
-        <v>4151.951912946808</v>
+        <v>4222.313531459753</v>
       </c>
       <c r="Q35" t="n">
-        <v>4515.534099052815</v>
+        <v>4577.479842394935</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.41740758035</v>
+        <v>4698.668177788971</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.950144347199</v>
+        <v>4611.388960992109</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.740996026518</v>
+        <v>4409.83173470214</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746067</v>
+        <v>4156.382044202376</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402496</v>
+        <v>3825.319156858805</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132382</v>
+        <v>3472.550501588691</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871302</v>
+        <v>3099.084743327611</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.86103389549</v>
+        <v>2708.9454113518</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.6608414294086</v>
+        <v>944.6439578738058</v>
       </c>
       <c r="C36" t="n">
-        <v>769.2078121482816</v>
+        <v>770.1909285926788</v>
       </c>
       <c r="D36" t="n">
-        <v>620.2734024870304</v>
+        <v>621.2565189314275</v>
       </c>
       <c r="E36" t="n">
-        <v>461.0359474815749</v>
+        <v>462.0190639259721</v>
       </c>
       <c r="F36" t="n">
-        <v>314.5013895084599</v>
+        <v>315.484505952857</v>
       </c>
       <c r="G36" t="n">
-        <v>178.7211392683894</v>
+        <v>179.6617113079114</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160701</v>
+        <v>94.37803080720295</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160701</v>
+        <v>93.97336355577941</v>
       </c>
       <c r="J36" t="n">
-        <v>93.84834815160701</v>
+        <v>237.6818203523167</v>
       </c>
       <c r="K36" t="n">
-        <v>93.84834815160701</v>
+        <v>237.6818203523167</v>
       </c>
       <c r="L36" t="n">
-        <v>142.676769632785</v>
+        <v>719.3604331778442</v>
       </c>
       <c r="M36" t="n">
-        <v>734.6951238849127</v>
+        <v>1300.81352320509</v>
       </c>
       <c r="N36" t="n">
-        <v>1356.791087284249</v>
+        <v>1912.064591273436</v>
       </c>
       <c r="O36" t="n">
-        <v>1903.667562284443</v>
+        <v>1912.064591273436</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.251080710519</v>
+        <v>2297.784122796872</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.812354695766</v>
+        <v>2523.022712863114</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.812354695766</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.200649953124</v>
+        <v>2436.358049178896</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.906943855537</v>
+        <v>2245.892859273939</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.877442379908</v>
+        <v>2017.860558824305</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.725334148165</v>
+        <v>1782.708450592562</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.487977419963</v>
+        <v>1528.47109386436</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.63647721443</v>
+        <v>1320.619593658828</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.876178449477</v>
+        <v>1112.859294893874</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>749.7802031534832</v>
+        <v>458.1849390155456</v>
       </c>
       <c r="C37" t="n">
-        <v>697.7383010189012</v>
+        <v>289.2487560876387</v>
       </c>
       <c r="D37" t="n">
-        <v>697.7383010189012</v>
+        <v>240.8633110536898</v>
       </c>
       <c r="E37" t="n">
-        <v>549.8252074365081</v>
+        <v>240.8633110536898</v>
       </c>
       <c r="F37" t="n">
-        <v>402.9352599385978</v>
+        <v>93.97336355577941</v>
       </c>
       <c r="G37" t="n">
-        <v>235.7210651131766</v>
+        <v>93.97336355577941</v>
       </c>
       <c r="H37" t="n">
-        <v>93.84834815160701</v>
+        <v>93.97336355577941</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160701</v>
+        <v>93.97336355577941</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8304710411609</v>
+        <v>170.4839550909369</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117246</v>
+        <v>426.0511968217957</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948587</v>
+        <v>808.6157121185341</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.450608139318</v>
+        <v>1222.365477090362</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.146473931021</v>
+        <v>1631.711813849209</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946051</v>
+        <v>1993.793114956027</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.699365782255</v>
+        <v>2280.095537301697</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.41249933569</v>
+        <v>2394.881414161633</v>
       </c>
       <c r="R37" t="n">
-        <v>2361.553154294192</v>
+        <v>2325.418315136072</v>
       </c>
       <c r="S37" t="n">
-        <v>2178.382964033122</v>
+        <v>2141.62653239877</v>
       </c>
       <c r="T37" t="n">
-        <v>1958.704181747504</v>
+        <v>1921.795351331811</v>
       </c>
       <c r="U37" t="n">
-        <v>1669.627968062231</v>
+        <v>1632.717192130181</v>
       </c>
       <c r="V37" t="n">
-        <v>1669.627968062231</v>
+        <v>1378.032703924294</v>
       </c>
       <c r="W37" t="n">
-        <v>1380.21079802527</v>
+        <v>1088.615533887333</v>
       </c>
       <c r="X37" t="n">
-        <v>1152.221247127253</v>
+        <v>860.6259829893155</v>
       </c>
       <c r="Y37" t="n">
-        <v>931.4286679837229</v>
+        <v>639.8334038457854</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.261193831371</v>
+        <v>2322.345571287678</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890959</v>
+        <v>1953.383054347266</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.032978284208</v>
+        <v>1595.117355740516</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.244725685964</v>
+        <v>1209.329103142272</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963565</v>
+        <v>798.343198352664</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127629</v>
+        <v>384.2805760276569</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160701</v>
+        <v>97.03887490037472</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160701</v>
+        <v>93.97336355577941</v>
       </c>
       <c r="J38" t="n">
-        <v>373.34422365072</v>
+        <v>366.8547825927167</v>
       </c>
       <c r="K38" t="n">
-        <v>842.974607438402</v>
+        <v>826.5718107645519</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.494387944177</v>
+        <v>1433.793197030001</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.498949883215</v>
+        <v>2141.113425729799</v>
       </c>
       <c r="N38" t="n">
-        <v>2920.783927800321</v>
+        <v>2864.492643589323</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610257</v>
+        <v>3534.223865147018</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297606</v>
+        <v>4222.313531459753</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403612</v>
+        <v>4577.479842394935</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.41740758035</v>
+        <v>4698.668177788971</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.950144347199</v>
+        <v>4611.388960992109</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.740996026518</v>
+        <v>4409.83173470214</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.297666746069</v>
+        <v>4156.382044202376</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402499</v>
+        <v>3825.319156858805</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132384</v>
+        <v>3472.550501588691</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871304</v>
+        <v>3099.084743327611</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895493</v>
+        <v>2708.9454113518</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.6608414294086</v>
+        <v>944.6439578738058</v>
       </c>
       <c r="C39" t="n">
-        <v>769.2078121482816</v>
+        <v>770.1909285926788</v>
       </c>
       <c r="D39" t="n">
-        <v>620.2734024870304</v>
+        <v>621.2565189314275</v>
       </c>
       <c r="E39" t="n">
-        <v>461.0359474815749</v>
+        <v>462.0190639259721</v>
       </c>
       <c r="F39" t="n">
-        <v>314.5013895084599</v>
+        <v>315.484505952857</v>
       </c>
       <c r="G39" t="n">
-        <v>178.7211392683894</v>
+        <v>179.6617113079114</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160701</v>
+        <v>94.37803080720295</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160701</v>
+        <v>93.97336355577941</v>
       </c>
       <c r="J39" t="n">
-        <v>231.7515454955022</v>
+        <v>237.6818203523167</v>
       </c>
       <c r="K39" t="n">
-        <v>562.260288058861</v>
+        <v>561.4572872887501</v>
       </c>
       <c r="L39" t="n">
-        <v>562.260288058861</v>
+        <v>1043.135900114278</v>
       </c>
       <c r="M39" t="n">
-        <v>1154.278642310989</v>
+        <v>1574.446125395474</v>
       </c>
       <c r="N39" t="n">
-        <v>1776.374605710325</v>
+        <v>1574.446125395474</v>
       </c>
       <c r="O39" t="n">
-        <v>2323.251080710519</v>
+        <v>2111.401639890091</v>
       </c>
       <c r="P39" t="n">
-        <v>2323.251080710519</v>
+        <v>2523.022712863114</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.812354695766</v>
+        <v>2523.022712863114</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.812354695766</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.200649953124</v>
+        <v>2436.358049178896</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.906943855537</v>
+        <v>2245.892859273939</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.877442379908</v>
+        <v>2017.860558824305</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.725334148165</v>
+        <v>1782.708450592562</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.487977419963</v>
+        <v>1528.47109386436</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.63647721443</v>
+        <v>1320.619593658828</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.876178449477</v>
+        <v>1112.859294893874</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>562.9550599890983</v>
+        <v>458.1849390155452</v>
       </c>
       <c r="C40" t="n">
-        <v>394.0188770611915</v>
+        <v>289.2487560876383</v>
       </c>
       <c r="D40" t="n">
-        <v>243.9022376488557</v>
+        <v>289.2487560876383</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7382956495174</v>
+        <v>141.3356625052451</v>
       </c>
       <c r="F40" t="n">
-        <v>93.84834815160701</v>
+        <v>93.97336355577941</v>
       </c>
       <c r="G40" t="n">
-        <v>93.84834815160701</v>
+        <v>93.97336355577941</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160701</v>
+        <v>93.97336355577941</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160701</v>
+        <v>93.97336355577941</v>
       </c>
       <c r="J40" t="n">
-        <v>172.830471041161</v>
+        <v>170.4839550909369</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117247</v>
+        <v>426.0511968217957</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948589</v>
+        <v>808.6157121185344</v>
       </c>
       <c r="M40" t="n">
-        <v>1239.450608139318</v>
+        <v>1222.365477090362</v>
       </c>
       <c r="N40" t="n">
-        <v>1654.146473931025</v>
+        <v>1631.711813849209</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946055</v>
+        <v>1993.793114956028</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.69936578226</v>
+        <v>2280.095537301697</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335694</v>
+        <v>2394.881414161633</v>
       </c>
       <c r="R40" t="n">
-        <v>2429.412499335694</v>
+        <v>2325.418315136072</v>
       </c>
       <c r="S40" t="n">
-        <v>2246.242309074624</v>
+        <v>2141.62653239877</v>
       </c>
       <c r="T40" t="n">
-        <v>2026.563526789006</v>
+        <v>1921.795351331811</v>
       </c>
       <c r="U40" t="n">
-        <v>1737.487313103733</v>
+        <v>1632.717192130181</v>
       </c>
       <c r="V40" t="n">
-        <v>1482.802824897846</v>
+        <v>1378.032703924294</v>
       </c>
       <c r="W40" t="n">
-        <v>1193.385654860886</v>
+        <v>1088.615533887332</v>
       </c>
       <c r="X40" t="n">
-        <v>965.3961039628682</v>
+        <v>860.625982989315</v>
       </c>
       <c r="Y40" t="n">
-        <v>744.6035248193381</v>
+        <v>639.8334038457849</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.26119383137</v>
+        <v>2322.345571287678</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890959</v>
+        <v>1953.383054347267</v>
       </c>
       <c r="D41" t="n">
-        <v>1591.032978284208</v>
+        <v>1595.117355740517</v>
       </c>
       <c r="E41" t="n">
-        <v>1205.244725685964</v>
+        <v>1209.329103142273</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963564</v>
+        <v>798.3431983526652</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127627</v>
+        <v>384.2805760276578</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160703</v>
+        <v>97.03887490037474</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160701</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J41" t="n">
-        <v>373.3442236507225</v>
+        <v>366.8547825927167</v>
       </c>
       <c r="K41" t="n">
-        <v>842.9746074384082</v>
+        <v>826.5718107645519</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944188</v>
+        <v>1433.793197030001</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.49894988323</v>
+        <v>2141.113425729799</v>
       </c>
       <c r="N41" t="n">
-        <v>2920.783927800342</v>
+        <v>3015.483207940953</v>
       </c>
       <c r="O41" t="n">
-        <v>3603.645964259485</v>
+        <v>3685.214429498648</v>
       </c>
       <c r="P41" t="n">
-        <v>4151.951912946837</v>
+        <v>4222.313531459754</v>
       </c>
       <c r="Q41" t="n">
-        <v>4515.534099052848</v>
+        <v>4577.479842394936</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.41740758035</v>
+        <v>4698.668177788972</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.9501443472</v>
+        <v>4611.38896099211</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.740996026519</v>
+        <v>4409.831734702141</v>
       </c>
       <c r="U41" t="n">
-        <v>4152.297666746068</v>
+        <v>4156.382044202377</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402497</v>
+        <v>3825.319156858806</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.466124132383</v>
+        <v>3472.550501588692</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871303</v>
+        <v>3099.084743327612</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895491</v>
+        <v>2708.9454113518</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.6608414294084</v>
+        <v>944.6439578738058</v>
       </c>
       <c r="C42" t="n">
-        <v>769.2078121482814</v>
+        <v>770.1909285926788</v>
       </c>
       <c r="D42" t="n">
-        <v>620.2734024870301</v>
+        <v>621.2565189314275</v>
       </c>
       <c r="E42" t="n">
-        <v>461.0359474815747</v>
+        <v>462.0190639259721</v>
       </c>
       <c r="F42" t="n">
-        <v>314.5013895084596</v>
+        <v>315.484505952857</v>
       </c>
       <c r="G42" t="n">
-        <v>178.7211392683892</v>
+        <v>179.6617113079114</v>
       </c>
       <c r="H42" t="n">
-        <v>93.84834815160701</v>
+        <v>94.37803080720296</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160701</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J42" t="n">
-        <v>93.84834815160701</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="K42" t="n">
-        <v>302.089229200341</v>
+        <v>417.7488304922128</v>
       </c>
       <c r="L42" t="n">
-        <v>792.8215620440957</v>
+        <v>899.4274433177404</v>
       </c>
       <c r="M42" t="n">
-        <v>1384.839916296227</v>
+        <v>899.4274433177404</v>
       </c>
       <c r="N42" t="n">
-        <v>2006.935879695568</v>
+        <v>1510.678511386087</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.812354695766</v>
+        <v>1886.16304982385</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.812354695766</v>
+        <v>2297.784122796872</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.812354695766</v>
+        <v>2523.022712863114</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.812354695766</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.200649953124</v>
+        <v>2436.358049178896</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.906943855537</v>
+        <v>2245.892859273939</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.877442379907</v>
+        <v>2017.860558824305</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.725334148165</v>
+        <v>1782.708450592562</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.487977419963</v>
+        <v>1528.47109386436</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.63647721443</v>
+        <v>1320.619593658828</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.876178449476</v>
+        <v>1112.859294893874</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>562.9550599891118</v>
+        <v>458.1849390155458</v>
       </c>
       <c r="C43" t="n">
-        <v>394.0188770612049</v>
+        <v>458.1849390155458</v>
       </c>
       <c r="D43" t="n">
-        <v>243.9022376488691</v>
+        <v>458.1849390155458</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7382956495174</v>
+        <v>408.1131736789991</v>
       </c>
       <c r="F43" t="n">
-        <v>93.84834815160701</v>
+        <v>261.2232261810888</v>
       </c>
       <c r="G43" t="n">
-        <v>93.84834815160701</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160701</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160701</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J43" t="n">
-        <v>172.8304710411618</v>
+        <v>170.4839550909369</v>
       </c>
       <c r="K43" t="n">
-        <v>432.459198011727</v>
+        <v>426.0511968217956</v>
       </c>
       <c r="L43" t="n">
-        <v>820.2210160948631</v>
+        <v>808.6157121185342</v>
       </c>
       <c r="M43" t="n">
-        <v>1239.450608139324</v>
+        <v>1222.365477090363</v>
       </c>
       <c r="N43" t="n">
-        <v>1654.146473931033</v>
+        <v>1631.711813849209</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.168930946065</v>
+        <v>1993.793114956028</v>
       </c>
       <c r="P43" t="n">
-        <v>2311.699365782271</v>
+        <v>2280.095537301698</v>
       </c>
       <c r="Q43" t="n">
-        <v>2429.412499335707</v>
+        <v>2394.881414161634</v>
       </c>
       <c r="R43" t="n">
-        <v>2429.412499335707</v>
+        <v>2325.418315136073</v>
       </c>
       <c r="S43" t="n">
-        <v>2246.242309074638</v>
+        <v>2141.62653239877</v>
       </c>
       <c r="T43" t="n">
-        <v>2026.56352678902</v>
+        <v>1921.795351331812</v>
       </c>
       <c r="U43" t="n">
-        <v>1737.487313103747</v>
+        <v>1632.717192130181</v>
       </c>
       <c r="V43" t="n">
-        <v>1482.80282489786</v>
+        <v>1378.032703924294</v>
       </c>
       <c r="W43" t="n">
-        <v>1193.385654860899</v>
+        <v>1088.615533887333</v>
       </c>
       <c r="X43" t="n">
-        <v>965.3961039628816</v>
+        <v>860.6259829893156</v>
       </c>
       <c r="Y43" t="n">
-        <v>744.6035248193515</v>
+        <v>639.8334038457855</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.80771165551</v>
+        <v>2322.345571287678</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.845194715098</v>
+        <v>1953.383054347266</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.579496108348</v>
+        <v>1595.117355740516</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510104</v>
+        <v>1209.329103142272</v>
       </c>
       <c r="F44" t="n">
-        <v>793.8053387204961</v>
+        <v>798.3431983526643</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399037</v>
+        <v>384.2805760276569</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160701</v>
+        <v>97.03887490037474</v>
       </c>
       <c r="I44" t="n">
-        <v>95.37264148556051</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J44" t="n">
-        <v>378.2242654148058</v>
+        <v>366.8547825927167</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112153</v>
+        <v>826.5718107645519</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436022</v>
+        <v>1433.793197030001</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118413</v>
+        <v>2141.113425729799</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459572</v>
+        <v>2864.492643589323</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171644</v>
+        <v>3534.223865147018</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798342</v>
+        <v>4222.313531459754</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.29741395589</v>
+        <v>4577.479842394936</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.864837502229</v>
+        <v>4698.668177788972</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596213</v>
+        <v>4611.388960992109</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.284286578419</v>
+        <v>4409.83173470214</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.844184570208</v>
+        <v>4156.382044202376</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226637</v>
+        <v>3825.319156858805</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956523</v>
+        <v>3472.550501588691</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695443</v>
+        <v>3099.084743327611</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719632</v>
+        <v>2708.9454113518</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.4307983814816</v>
+        <v>944.6439578738058</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9777691003546</v>
+        <v>770.1909285926788</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0433594391034</v>
+        <v>621.2565189314275</v>
       </c>
       <c r="E45" t="n">
-        <v>460.8059044336479</v>
+        <v>462.0190639259721</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2713464605329</v>
+        <v>315.484505952857</v>
       </c>
       <c r="G45" t="n">
-        <v>178.5126805064408</v>
+        <v>179.6617113079114</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160701</v>
+        <v>94.37803080720296</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160701</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4949906792617</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="K45" t="n">
-        <v>577.4197628504824</v>
+        <v>417.7488304922128</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.745369066241</v>
+        <v>899.4274433177404</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.123856692793</v>
+        <v>1274.911981755504</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.7218202474</v>
+        <v>1886.16304982385</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.09297316441</v>
+        <v>1886.16304982385</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.09297316441</v>
+        <v>2297.784122796872</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.09297316441</v>
+        <v>2523.022712863114</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.09297316441</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.882187067023</v>
+        <v>2436.358049178896</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.675480788796</v>
+        <v>2245.892859273939</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.647399331981</v>
+        <v>2017.860558824305</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.495291100238</v>
+        <v>1782.708450592562</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.257934372036</v>
+        <v>1528.47109386436</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.406434166503</v>
+        <v>1320.619593658828</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.64613540155</v>
+        <v>1112.859294893874</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8852858437065</v>
+        <v>527.6480380411067</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8852858437065</v>
+        <v>358.7118551131998</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6513892319105</v>
+        <v>208.5952157008641</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7382956495174</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="F46" t="n">
-        <v>93.84834815160701</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="G46" t="n">
-        <v>93.84834815160701</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160701</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160701</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0843665819309</v>
+        <v>170.4839550909369</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7736291074695</v>
+        <v>426.0511968217956</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1722232834097</v>
+        <v>808.6157121185342</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.181926014444</v>
+        <v>1222.365477090362</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.591797674453</v>
+        <v>1631.711813849209</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.121078383438</v>
+        <v>1993.793114956028</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.796533956996</v>
+        <v>2280.095537301697</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.994768683895</v>
+        <v>2394.881414161633</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.949064936298</v>
+        <v>2394.881414161633</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.094230591202</v>
+        <v>2211.08963142433</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.492765614143</v>
+        <v>1991.258450357372</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.417538958341</v>
+        <v>1702.180291155742</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.733050752454</v>
+        <v>1447.495802949855</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.315880715493</v>
+        <v>1158.078632912894</v>
       </c>
       <c r="X46" t="n">
-        <v>916.3263298174761</v>
+        <v>930.0890820148766</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5337506739462</v>
+        <v>709.2965028713464</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8696,22 +8696,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>192.1853085771353</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8933,19 +8933,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>251.1867816683983</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>67.53663776704306</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>67.53663776704252</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>67.53663776704161</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9407,22 +9407,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>201.9664098701125</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,19 +9644,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>39.48321557772761</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>124.0833809162806</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9881,13 +9881,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>304.5677898107905</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>152.5157215673036</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>304.5677898107905</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>152.5157215673036</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>304.5677898107769</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>152.5157215673033</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>152.5157215673026</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>51.31264782908809</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10835,10 +10835,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>51.31264782908875</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>152.5157215673026</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>152.5157215673033</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>51.31264782905313</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>152.5157215673036</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>118.2281213950246</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>92.48912964370429</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>2.335964134057454</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>31.98681829672483</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>241.104602661916</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>162.5760987035351</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>243.7897717757346</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>152.1350798790571</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>16.14213605696619</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>18.87781098824354</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>52.10173037542241</v>
       </c>
       <c r="H28" t="n">
-        <v>141.2396273813004</v>
+        <v>140.7679377665695</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>82.86647848267937</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>71.15392492125488</v>
+        <v>68.76846803530518</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>85.85031526786769</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>100.7138824346024</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5773639990562</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.7679377665695</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>82.86647848267937</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>120.8701984107283</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.6304170232079</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.7679377665695</v>
       </c>
       <c r="I34" t="n">
-        <v>65.64094626758569</v>
+        <v>82.86647848267937</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>115.7253379853917</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>100.7138824346029</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5773639990562</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.7679377665695</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440902</v>
+        <v>82.86647848267936</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>143.3016600672241</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>98.53237206296018</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>165.5773639990562</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>140.7679377665695</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440902</v>
+        <v>82.86647848267937</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>143.301660067211</v>
+        <v>96.86291496338792</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919538</v>
+        <v>140.7679377665695</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440862</v>
+        <v>82.86647848267937</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108297</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>24.63391537253435</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>32.95832902293539</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5773639990562</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>140.7679377665695</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>82.86647848267937</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>68.76846803530518</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>917731.8302410262</v>
+        <v>917731.8302410261</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>917731.8302410261</v>
+        <v>917731.8302410262</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>913457.9024230058</v>
+        <v>912884.4329699419</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>913457.9024230059</v>
+        <v>912884.4329699419</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>913457.902423006</v>
+        <v>912884.4329699419</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>912502.7421977248</v>
+        <v>912884.4329699419</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>912502.7421977249</v>
+        <v>912884.4329699419</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>912502.7421977248</v>
+        <v>912884.4329699419</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>912309.5324063433</v>
+        <v>912884.4329699419</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
         <v>496352.2336087288</v>
       </c>
       <c r="F2" t="n">
-        <v>496352.2336087288</v>
+        <v>496352.233608729</v>
       </c>
       <c r="G2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="H2" t="n">
-        <v>496352.233608729</v>
+        <v>496352.2336087288</v>
       </c>
       <c r="I2" t="n">
-        <v>496352.2336087287</v>
+        <v>496352.2336087289</v>
       </c>
       <c r="J2" t="n">
-        <v>502747.591864364</v>
+        <v>503605.711785235</v>
       </c>
       <c r="K2" t="n">
-        <v>502747.591864364</v>
+        <v>503605.7117852349</v>
       </c>
       <c r="L2" t="n">
-        <v>502747.591864364</v>
+        <v>503605.711785235</v>
       </c>
       <c r="M2" t="n">
-        <v>504176.8606990996</v>
+        <v>503605.711785235</v>
       </c>
       <c r="N2" t="n">
-        <v>504176.8606990997</v>
+        <v>503605.711785235</v>
       </c>
       <c r="O2" t="n">
-        <v>504176.8606990997</v>
+        <v>503605.711785235</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>503605.711785235</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>334053.3250733737</v>
+        <v>355203.9046935404</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.951008016476408e-09</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>163129.4787408567</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.928413545712829e-09</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.13257494794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,7 +26424,7 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="F4" t="n">
         <v>25090.72367499382</v>
@@ -26433,31 +26433,31 @@
         <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="I4" t="n">
         <v>25090.7236749938</v>
       </c>
-      <c r="I4" t="n">
-        <v>25090.72367499383</v>
-      </c>
       <c r="J4" t="n">
-        <v>9308.90653674965</v>
+        <v>7191.326383352368</v>
       </c>
       <c r="K4" t="n">
-        <v>9308.906536749651</v>
+        <v>7191.326383352367</v>
       </c>
       <c r="L4" t="n">
-        <v>9308.906536749462</v>
+        <v>7191.326383352364</v>
       </c>
       <c r="M4" t="n">
-        <v>5781.971894855077</v>
+        <v>7191.326383352355</v>
       </c>
       <c r="N4" t="n">
-        <v>5781.971894855176</v>
+        <v>7191.326383352354</v>
       </c>
       <c r="O4" t="n">
-        <v>5781.971894854589</v>
+        <v>7191.326383352365</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670437</v>
+        <v>7191.326383352367</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26488,28 +26488,28 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>100099.5588493308</v>
+        <v>100598.1718017881</v>
       </c>
       <c r="K5" t="n">
-        <v>100099.5588493308</v>
+        <v>100598.1718017881</v>
       </c>
       <c r="L5" t="n">
-        <v>100099.5588493308</v>
+        <v>100598.1718017881</v>
       </c>
       <c r="M5" t="n">
-        <v>100930.0394572385</v>
+        <v>100598.1718017881</v>
       </c>
       <c r="N5" t="n">
-        <v>100930.0394572385</v>
+        <v>100598.1718017881</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572387</v>
+        <v>100598.1718017881</v>
       </c>
       <c r="P5" t="n">
-        <v>101146.6105026698</v>
+        <v>100598.1718017881</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-360740.3570405087</v>
       </c>
       <c r="C6" t="n">
-        <v>229227.5221740363</v>
+        <v>229227.5221740362</v>
       </c>
       <c r="D6" t="n">
-        <v>229227.5221740361</v>
+        <v>229227.5221740362</v>
       </c>
       <c r="E6" t="n">
-        <v>-352499.4223133852</v>
+        <v>-352566.6178036112</v>
       </c>
       <c r="F6" t="n">
-        <v>374877.9916800213</v>
+        <v>374810.7961897957</v>
       </c>
       <c r="G6" t="n">
-        <v>374877.9916800213</v>
+        <v>374810.7961897955</v>
       </c>
       <c r="H6" t="n">
-        <v>374877.9916800215</v>
+        <v>374810.7961897955</v>
       </c>
       <c r="I6" t="n">
-        <v>374877.9916800212</v>
+        <v>374810.7961897957</v>
       </c>
       <c r="J6" t="n">
-        <v>59285.80140490981</v>
+        <v>40574.12732903439</v>
       </c>
       <c r="K6" t="n">
-        <v>393339.1264782835</v>
+        <v>395778.0320225747</v>
       </c>
       <c r="L6" t="n">
-        <v>393339.1264782818</v>
+        <v>395778.0320225748</v>
       </c>
       <c r="M6" t="n">
-        <v>234335.3706061493</v>
+        <v>266135.7171836301</v>
       </c>
       <c r="N6" t="n">
-        <v>397464.8493470059</v>
+        <v>395778.0320225748</v>
       </c>
       <c r="O6" t="n">
-        <v>397464.8493470015</v>
+        <v>395778.0320225748</v>
       </c>
       <c r="P6" t="n">
-        <v>391640.2891269656</v>
+        <v>395778.0320225749</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26759,25 +26759,25 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1309.039113184552</v>
+        <v>1338.459426577785</v>
       </c>
       <c r="K3" t="n">
-        <v>1309.039113184552</v>
+        <v>1338.459426577785</v>
       </c>
       <c r="L3" t="n">
-        <v>1309.039113184554</v>
+        <v>1338.459426577785</v>
       </c>
       <c r="M3" t="n">
-        <v>1358.041048716386</v>
+        <v>1338.459426577785</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.041048716386</v>
+        <v>1338.459426577785</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.041048716393</v>
+        <v>1338.459426577785</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1338.459426577785</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26811,25 +26811,25 @@
         <v>1194.51293060493</v>
       </c>
       <c r="J4" t="n">
-        <v>1177.01490430769</v>
+        <v>1174.667044447243</v>
       </c>
       <c r="K4" t="n">
-        <v>1177.01490430769</v>
+        <v>1174.667044447243</v>
       </c>
       <c r="L4" t="n">
-        <v>1177.01490430769</v>
+        <v>1174.667044447243</v>
       </c>
       <c r="M4" t="n">
-        <v>1173.104351895088</v>
+        <v>1174.667044447243</v>
       </c>
       <c r="N4" t="n">
-        <v>1173.104351895088</v>
+        <v>1174.667044447243</v>
       </c>
       <c r="O4" t="n">
-        <v>1173.104351895088</v>
+        <v>1174.667044447243</v>
       </c>
       <c r="P4" t="n">
-        <v>1173.104351895088</v>
+        <v>1174.667044447243</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,25 +26981,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>219.2624125912535</v>
+        <v>248.6827259844868</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.728484105318785e-12</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49.00193553183135</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7.275957614183426e-12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.934451625280872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>656.7892464573152</v>
+        <v>654.4413865968681</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>516.3151054377722</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>285.7800647703627</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>39.06311083518733</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,19 +27591,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>96.92615468724688</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>17.25436541380077</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>349.7893012822187</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>249.1599642490852</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87.68475213961388</v>
+        <v>157.721567086496</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>134.6970145529883</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>153.6118477624158</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>120.5017245654296</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>83.3620382482288</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.294324647460598e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>-4.149569576838985e-12</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.017941369558685e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32084,7 +32084,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837925</v>
@@ -32096,7 +32096,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32321,7 +32321,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32549,10 +32549,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32798,7 +32798,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.262468796721812</v>
+        <v>5.380741413378026</v>
       </c>
       <c r="H26" t="n">
-        <v>53.89425856442728</v>
+        <v>55.10551799975772</v>
       </c>
       <c r="I26" t="n">
-        <v>202.8813282856179</v>
+        <v>207.4410333392566</v>
       </c>
       <c r="J26" t="n">
-        <v>446.6454610357683</v>
+        <v>456.6837015336937</v>
       </c>
       <c r="K26" t="n">
-        <v>669.4057652010027</v>
+        <v>684.4504855619857</v>
       </c>
       <c r="L26" t="n">
-        <v>830.4570446386781</v>
+        <v>849.1213505916536</v>
       </c>
       <c r="M26" t="n">
-        <v>924.0434741023796</v>
+        <v>944.8111107018151</v>
       </c>
       <c r="N26" t="n">
-        <v>938.9954635710654</v>
+        <v>960.0991422425755</v>
       </c>
       <c r="O26" t="n">
-        <v>886.6667894736629</v>
+        <v>906.5943948132976</v>
       </c>
       <c r="P26" t="n">
-        <v>756.7495910545931</v>
+        <v>773.7573411705275</v>
       </c>
       <c r="Q26" t="n">
-        <v>568.287427271993</v>
+        <v>581.0595393039267</v>
       </c>
       <c r="R26" t="n">
-        <v>330.5685555520768</v>
+        <v>337.9979978081078</v>
       </c>
       <c r="S26" t="n">
-        <v>119.9185077052984</v>
+        <v>122.6136449573519</v>
       </c>
       <c r="T26" t="n">
-        <v>23.03645715764974</v>
+        <v>23.55419553706232</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4209975037377449</v>
+        <v>0.430459313070242</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.815669035906395</v>
+        <v>2.878950464714481</v>
       </c>
       <c r="H27" t="n">
-        <v>27.19343516256966</v>
+        <v>27.80460054079512</v>
       </c>
       <c r="I27" t="n">
-        <v>96.94299092923333</v>
+        <v>99.1217594210907</v>
       </c>
       <c r="J27" t="n">
-        <v>266.0189767651739</v>
+        <v>271.9976840369063</v>
       </c>
       <c r="K27" t="n">
-        <v>454.6688021709023</v>
+        <v>464.8873651727766</v>
       </c>
       <c r="L27" t="n">
-        <v>611.358314133974</v>
+        <v>271.8893337591751</v>
       </c>
       <c r="M27" t="n">
-        <v>713.4263166855806</v>
+        <v>729.4603874848927</v>
       </c>
       <c r="N27" t="n">
-        <v>594.9418345578944</v>
+        <v>748.7670333644913</v>
       </c>
       <c r="O27" t="n">
-        <v>669.9192903105885</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>549.7532690032416</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>367.4955014256591</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>178.7474683267465</v>
       </c>
       <c r="S27" t="n">
-        <v>52.29981739940163</v>
+        <v>53.47524218449921</v>
       </c>
       <c r="T27" t="n">
-        <v>11.34912212279814</v>
+        <v>11.60419068891494</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1852413839412102</v>
+        <v>0.1894046358364791</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.360562335250831</v>
+        <v>2.413615359402563</v>
       </c>
       <c r="H28" t="n">
-        <v>20.98754512613922</v>
+        <v>21.45923474087008</v>
       </c>
       <c r="I28" t="n">
-        <v>70.98854731827046</v>
+        <v>72.58399644457891</v>
       </c>
       <c r="J28" t="n">
-        <v>166.8917571022337</v>
+        <v>170.6426059097612</v>
       </c>
       <c r="K28" t="n">
-        <v>274.2544240409601</v>
+        <v>280.4182208469522</v>
       </c>
       <c r="L28" t="n">
-        <v>350.951240279019</v>
+        <v>358.8387780697229</v>
       </c>
       <c r="M28" t="n">
-        <v>370.0288758793643</v>
+        <v>378.3451785652581</v>
       </c>
       <c r="N28" t="n">
-        <v>361.2304162661569</v>
+        <v>369.3489758620306</v>
       </c>
       <c r="O28" t="n">
-        <v>333.6547562589084</v>
+        <v>341.153560072646</v>
       </c>
       <c r="P28" t="n">
-        <v>285.4992846197913</v>
+        <v>291.9158067408335</v>
       </c>
       <c r="Q28" t="n">
-        <v>197.6649060908673</v>
+        <v>202.1073734132455</v>
       </c>
       <c r="R28" t="n">
-        <v>106.1394664559146</v>
+        <v>108.5249233418643</v>
       </c>
       <c r="S28" t="n">
-        <v>41.13816360614401</v>
+        <v>42.06273312704283</v>
       </c>
       <c r="T28" t="n">
-        <v>10.086039068799</v>
+        <v>10.31272017199277</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1287579455591364</v>
+        <v>0.1316517468765036</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.262468796721812</v>
+        <v>5.380741413378026</v>
       </c>
       <c r="H29" t="n">
-        <v>53.89425856442728</v>
+        <v>55.10551799975772</v>
       </c>
       <c r="I29" t="n">
-        <v>202.8813282856179</v>
+        <v>207.4410333392566</v>
       </c>
       <c r="J29" t="n">
-        <v>446.6454610357683</v>
+        <v>456.6837015336937</v>
       </c>
       <c r="K29" t="n">
-        <v>669.4057652010027</v>
+        <v>684.4504855619857</v>
       </c>
       <c r="L29" t="n">
-        <v>830.4570446386781</v>
+        <v>849.1213505916536</v>
       </c>
       <c r="M29" t="n">
-        <v>924.0434741023796</v>
+        <v>944.8111107018151</v>
       </c>
       <c r="N29" t="n">
-        <v>938.9954635710654</v>
+        <v>960.0991422425755</v>
       </c>
       <c r="O29" t="n">
-        <v>886.6667894736629</v>
+        <v>906.5943948132976</v>
       </c>
       <c r="P29" t="n">
-        <v>756.7495910545931</v>
+        <v>773.7573411705275</v>
       </c>
       <c r="Q29" t="n">
-        <v>568.287427271993</v>
+        <v>581.0595393039267</v>
       </c>
       <c r="R29" t="n">
-        <v>330.5685555520768</v>
+        <v>337.9979978081078</v>
       </c>
       <c r="S29" t="n">
-        <v>119.9185077052984</v>
+        <v>122.6136449573519</v>
       </c>
       <c r="T29" t="n">
-        <v>23.03645715764974</v>
+        <v>23.55419553706232</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4209975037377449</v>
+        <v>0.430459313070242</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.815669035906395</v>
+        <v>2.878950464714481</v>
       </c>
       <c r="H30" t="n">
-        <v>27.19343516256966</v>
+        <v>27.80460054079512</v>
       </c>
       <c r="I30" t="n">
-        <v>96.94299092923333</v>
+        <v>99.1217594210907</v>
       </c>
       <c r="J30" t="n">
-        <v>266.0189767651739</v>
+        <v>271.9976840369063</v>
       </c>
       <c r="K30" t="n">
-        <v>454.6688021709023</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>611.358314133974</v>
+        <v>625.098433138993</v>
       </c>
       <c r="M30" t="n">
-        <v>713.4263166855806</v>
+        <v>729.4603874848927</v>
       </c>
       <c r="N30" t="n">
-        <v>718.5699962362081</v>
+        <v>180.2245526127703</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>684.9755520147652</v>
       </c>
       <c r="P30" t="n">
-        <v>537.6692916021606</v>
+        <v>549.7532690032416</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>367.4955014256591</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>178.7474683267465</v>
       </c>
       <c r="S30" t="n">
-        <v>52.29981739940163</v>
+        <v>53.47524218449921</v>
       </c>
       <c r="T30" t="n">
-        <v>11.34912212279814</v>
+        <v>11.60419068891494</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1852413839412102</v>
+        <v>0.1894046358364791</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.360562335250831</v>
+        <v>2.413615359402563</v>
       </c>
       <c r="H31" t="n">
-        <v>20.98754512613922</v>
+        <v>21.45923474087008</v>
       </c>
       <c r="I31" t="n">
-        <v>70.98854731827046</v>
+        <v>72.58399644457891</v>
       </c>
       <c r="J31" t="n">
-        <v>166.8917571022337</v>
+        <v>170.6426059097612</v>
       </c>
       <c r="K31" t="n">
-        <v>274.2544240409601</v>
+        <v>280.4182208469522</v>
       </c>
       <c r="L31" t="n">
-        <v>350.951240279019</v>
+        <v>358.8387780697229</v>
       </c>
       <c r="M31" t="n">
-        <v>370.0288758793643</v>
+        <v>378.3451785652581</v>
       </c>
       <c r="N31" t="n">
-        <v>361.2304162661569</v>
+        <v>369.3489758620306</v>
       </c>
       <c r="O31" t="n">
-        <v>333.6547562589084</v>
+        <v>341.153560072646</v>
       </c>
       <c r="P31" t="n">
-        <v>285.4992846197913</v>
+        <v>291.9158067408335</v>
       </c>
       <c r="Q31" t="n">
-        <v>197.6649060908673</v>
+        <v>202.1073734132455</v>
       </c>
       <c r="R31" t="n">
-        <v>106.1394664559146</v>
+        <v>108.5249233418643</v>
       </c>
       <c r="S31" t="n">
-        <v>41.13816360614401</v>
+        <v>42.06273312704283</v>
       </c>
       <c r="T31" t="n">
-        <v>10.086039068799</v>
+        <v>10.31272017199277</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1287579455591364</v>
+        <v>0.1316517468765036</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.262468796721823</v>
+        <v>5.380741413378026</v>
       </c>
       <c r="H32" t="n">
-        <v>53.89425856442738</v>
+        <v>55.10551799975772</v>
       </c>
       <c r="I32" t="n">
-        <v>202.8813282856183</v>
+        <v>207.4410333392566</v>
       </c>
       <c r="J32" t="n">
-        <v>446.6454610357692</v>
+        <v>456.6837015336937</v>
       </c>
       <c r="K32" t="n">
-        <v>669.4057652010041</v>
+        <v>684.4504855619857</v>
       </c>
       <c r="L32" t="n">
-        <v>830.4570446386798</v>
+        <v>849.1213505916536</v>
       </c>
       <c r="M32" t="n">
-        <v>924.0434741023815</v>
+        <v>944.8111107018151</v>
       </c>
       <c r="N32" t="n">
-        <v>938.9954635710675</v>
+        <v>960.0991422425755</v>
       </c>
       <c r="O32" t="n">
-        <v>886.6667894736647</v>
+        <v>906.5943948132976</v>
       </c>
       <c r="P32" t="n">
-        <v>756.7495910545946</v>
+        <v>773.7573411705275</v>
       </c>
       <c r="Q32" t="n">
-        <v>568.2874272719941</v>
+        <v>581.0595393039267</v>
       </c>
       <c r="R32" t="n">
-        <v>330.5685555520775</v>
+        <v>337.9979978081078</v>
       </c>
       <c r="S32" t="n">
-        <v>119.9185077052987</v>
+        <v>122.6136449573519</v>
       </c>
       <c r="T32" t="n">
-        <v>23.03645715764979</v>
+        <v>23.55419553706232</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4209975037377457</v>
+        <v>0.430459313070242</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.8156690359064</v>
+        <v>2.878950464714481</v>
       </c>
       <c r="H33" t="n">
-        <v>27.19343516256971</v>
+        <v>27.80460054079512</v>
       </c>
       <c r="I33" t="n">
-        <v>96.94299092923353</v>
+        <v>99.1217594210907</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>152.3020292368792</v>
       </c>
       <c r="K33" t="n">
-        <v>454.6688021709033</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>625.098433138993</v>
       </c>
       <c r="M33" t="n">
-        <v>713.4263166855822</v>
+        <v>729.4603874848927</v>
       </c>
       <c r="N33" t="n">
-        <v>583.7963263603536</v>
+        <v>748.7670333644913</v>
       </c>
       <c r="O33" t="n">
-        <v>669.9192903105899</v>
+        <v>684.9755520147652</v>
       </c>
       <c r="P33" t="n">
-        <v>537.6692916021617</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>359.4176825483328</v>
+        <v>367.4955014256591</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>52.29981739940174</v>
+        <v>53.47524218449921</v>
       </c>
       <c r="T33" t="n">
-        <v>11.34912212279816</v>
+        <v>11.60419068891494</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1852413839412106</v>
+        <v>0.1894046358364791</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.360562335250836</v>
+        <v>2.413615359402563</v>
       </c>
       <c r="H34" t="n">
-        <v>20.98754512613926</v>
+        <v>21.45923474087008</v>
       </c>
       <c r="I34" t="n">
-        <v>70.98854731827061</v>
+        <v>72.58399644457891</v>
       </c>
       <c r="J34" t="n">
-        <v>166.8917571022341</v>
+        <v>170.6426059097612</v>
       </c>
       <c r="K34" t="n">
-        <v>274.2544240409607</v>
+        <v>280.4182208469522</v>
       </c>
       <c r="L34" t="n">
-        <v>350.9512402790198</v>
+        <v>358.8387780697229</v>
       </c>
       <c r="M34" t="n">
-        <v>370.028875879365</v>
+        <v>378.3451785652581</v>
       </c>
       <c r="N34" t="n">
-        <v>361.2304162661577</v>
+        <v>369.3489758620306</v>
       </c>
       <c r="O34" t="n">
-        <v>333.6547562589092</v>
+        <v>341.153560072646</v>
       </c>
       <c r="P34" t="n">
-        <v>285.4992846197919</v>
+        <v>291.9158067408335</v>
       </c>
       <c r="Q34" t="n">
-        <v>197.6649060908677</v>
+        <v>202.1073734132455</v>
       </c>
       <c r="R34" t="n">
-        <v>106.1394664559148</v>
+        <v>108.5249233418643</v>
       </c>
       <c r="S34" t="n">
-        <v>41.1381636061441</v>
+        <v>42.06273312704283</v>
       </c>
       <c r="T34" t="n">
-        <v>10.08603906879902</v>
+        <v>10.31272017199277</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1287579455591366</v>
+        <v>0.1316517468765036</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377426</v>
+        <v>5.380741413378026</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122283</v>
+        <v>55.10551799975772</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>207.4410333392566</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874065</v>
+        <v>456.6837015336937</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830431</v>
+        <v>684.4504855619857</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364265</v>
+        <v>849.1213505916536</v>
       </c>
       <c r="M35" t="n">
-        <v>958.633669529331</v>
+        <v>944.8111107018151</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229609</v>
+        <v>960.0991422425755</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086953</v>
+        <v>906.5943948132976</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687525</v>
+        <v>773.7573411705275</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148607</v>
+        <v>581.0595393039267</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987163</v>
+        <v>337.9979978081078</v>
       </c>
       <c r="S35" t="n">
-        <v>124.4074789854257</v>
+        <v>122.6136449573519</v>
       </c>
       <c r="T35" t="n">
-        <v>23.8987927266572</v>
+        <v>23.55419553706232</v>
       </c>
       <c r="U35" t="n">
-        <v>0.436756920190194</v>
+        <v>0.430459313070242</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.921069425540905</v>
+        <v>2.878950464714481</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088191</v>
+        <v>27.80460054079512</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>99.1217594210907</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>271.9976840369063</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>187.8760176396499</v>
+        <v>625.098433138993</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504302</v>
+        <v>729.4603874848927</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>748.7670333644913</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982454</v>
+        <v>523.5900958218414</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286953</v>
+        <v>367.4955014256591</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>178.7474683267465</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862161</v>
+        <v>53.47524218449921</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821093</v>
+        <v>11.60419068891494</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1894046358364791</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.448926481291843</v>
+        <v>2.413615359402563</v>
       </c>
       <c r="H37" t="n">
-        <v>21.77318271548567</v>
+        <v>21.45923474087008</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284927</v>
+        <v>72.58399644457891</v>
       </c>
       <c r="J37" t="n">
-        <v>173.1391022273333</v>
+        <v>170.6426059097612</v>
       </c>
       <c r="K37" t="n">
-        <v>284.5207311900886</v>
+        <v>280.4182208469522</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640619</v>
+        <v>358.8387780697229</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265022</v>
+        <v>378.3451785652581</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416875</v>
+        <v>369.3489758620306</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465963</v>
+        <v>341.153560072646</v>
       </c>
       <c r="P37" t="n">
-        <v>296.1865264282424</v>
+        <v>291.9158067408335</v>
       </c>
       <c r="Q37" t="n">
-        <v>205.0641983561742</v>
+        <v>202.1073734132455</v>
       </c>
       <c r="R37" t="n">
-        <v>110.1126397860859</v>
+        <v>108.5249233418643</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851329</v>
+        <v>42.06273312704283</v>
       </c>
       <c r="T37" t="n">
-        <v>10.46359496551969</v>
+        <v>10.31272017199277</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1316517468765036</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377426</v>
+        <v>5.380741413378026</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122283</v>
+        <v>55.10551799975772</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>207.4410333392566</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874065</v>
+        <v>456.6837015336937</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830431</v>
+        <v>684.4504855619857</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364265</v>
+        <v>849.1213505916536</v>
       </c>
       <c r="M38" t="n">
-        <v>958.633669529331</v>
+        <v>944.8111107018151</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229609</v>
+        <v>960.0991422425755</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086953</v>
+        <v>906.5943948132976</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687525</v>
+        <v>773.7573411705275</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148607</v>
+        <v>581.0595393039267</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987163</v>
+        <v>337.9979978081078</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854257</v>
+        <v>122.6136449573519</v>
       </c>
       <c r="T38" t="n">
-        <v>23.8987927266572</v>
+        <v>23.55419553706232</v>
       </c>
       <c r="U38" t="n">
-        <v>0.436756920190194</v>
+        <v>0.430459313070242</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540905</v>
+        <v>2.878950464714481</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088191</v>
+        <v>27.80460054079512</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>99.1217594210907</v>
       </c>
       <c r="J39" t="n">
-        <v>266.1337855998942</v>
+        <v>271.9976840369063</v>
       </c>
       <c r="K39" t="n">
-        <v>471.6886536848224</v>
+        <v>464.8873651727766</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>625.098433138993</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504302</v>
+        <v>678.8110291555495</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426205</v>
+        <v>684.9755520147652</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>549.7532690032416</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>178.7474683267465</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862161</v>
+        <v>53.47524218449921</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821093</v>
+        <v>11.60419068891494</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1894046358364791</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291843</v>
+        <v>2.413615359402563</v>
       </c>
       <c r="H40" t="n">
-        <v>21.77318271548567</v>
+        <v>21.45923474087008</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284927</v>
+        <v>72.58399644457891</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273333</v>
+        <v>170.6426059097612</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900886</v>
+        <v>280.4182208469522</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640619</v>
+        <v>358.8387780697229</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265022</v>
+        <v>378.3451785652581</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416875</v>
+        <v>369.3489758620306</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465963</v>
+        <v>341.153560072646</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282424</v>
+        <v>291.9158067408335</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561742</v>
+        <v>202.1073734132455</v>
       </c>
       <c r="R40" t="n">
-        <v>110.1126397860859</v>
+        <v>108.5249233418643</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851329</v>
+        <v>42.06273312704283</v>
       </c>
       <c r="T40" t="n">
-        <v>10.46359496551969</v>
+        <v>10.31272017199277</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1316517468765036</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377455</v>
+        <v>5.380741413378026</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122313</v>
+        <v>55.10551799975772</v>
       </c>
       <c r="I41" t="n">
-        <v>210.475889570407</v>
+        <v>207.4410333392566</v>
       </c>
       <c r="J41" t="n">
-        <v>463.364970687409</v>
+        <v>456.6837015336937</v>
       </c>
       <c r="K41" t="n">
-        <v>694.4639760830469</v>
+        <v>684.4504855619857</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364311</v>
+        <v>849.1213505916536</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293361</v>
+        <v>944.8111107018151</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229661</v>
+        <v>960.0991422425755</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442087003</v>
+        <v>906.5943948132976</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687567</v>
+        <v>773.7573411705275</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148639</v>
+        <v>581.0595393039267</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987182</v>
+        <v>337.9979978081078</v>
       </c>
       <c r="S41" t="n">
-        <v>124.4074789854264</v>
+        <v>122.6136449573519</v>
       </c>
       <c r="T41" t="n">
-        <v>23.89879272665732</v>
+        <v>23.55419553706232</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4367569201901964</v>
+        <v>0.430459313070242</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.921069425540921</v>
+        <v>2.878950464714481</v>
       </c>
       <c r="H42" t="n">
-        <v>28.21138103088206</v>
+        <v>27.80460054079512</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>99.1217594210907</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>348.1857632660095</v>
+        <v>464.8873651727766</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745759</v>
+        <v>625.098433138993</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504342</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>759.721473092768</v>
+        <v>748.7670333644913</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426243</v>
+        <v>521.8735559977406</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>549.7532690032416</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>367.4955014256591</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>178.7474683267465</v>
       </c>
       <c r="S42" t="n">
-        <v>54.2575834086219</v>
+        <v>53.47524218449921</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821099</v>
+        <v>11.60419068891494</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1921756201013765</v>
+        <v>0.1894046358364791</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.448926481291856</v>
+        <v>2.413615359402563</v>
       </c>
       <c r="H43" t="n">
-        <v>21.77318271548579</v>
+        <v>21.45923474087008</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284966</v>
+        <v>72.58399644457891</v>
       </c>
       <c r="J43" t="n">
-        <v>173.1391022273342</v>
+        <v>170.6426059097612</v>
       </c>
       <c r="K43" t="n">
-        <v>284.5207311900901</v>
+        <v>280.4182208469522</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640638</v>
+        <v>358.8387780697229</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265043</v>
+        <v>378.3451785652581</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416895</v>
+        <v>369.3489758620306</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465981</v>
+        <v>341.153560072646</v>
       </c>
       <c r="P43" t="n">
-        <v>296.186526428244</v>
+        <v>291.9158067408335</v>
       </c>
       <c r="Q43" t="n">
-        <v>205.0641983561754</v>
+        <v>202.1073734132455</v>
       </c>
       <c r="R43" t="n">
-        <v>110.1126397860865</v>
+        <v>108.5249233418643</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851351</v>
+        <v>42.06273312704283</v>
       </c>
       <c r="T43" t="n">
-        <v>10.46359496551975</v>
+        <v>10.31272017199277</v>
       </c>
       <c r="U43" t="n">
-        <v>0.133577808070465</v>
+        <v>0.1316517468765036</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.380741413378026</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.10551799975772</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>207.4410333392566</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>456.6837015336937</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>684.4504855619857</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>849.1213505916536</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>944.8111107018151</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>960.0991422425755</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>906.5943948132976</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>773.7573411705275</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>581.0595393039267</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>337.9979978081078</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>122.6136449573519</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.55419553706232</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.430459313070242</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.878950464714481</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>27.80460054079512</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>99.1217594210907</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>464.8873651727766</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>625.098433138993</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>521.4113454753144</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>748.7670333644913</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565758</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>549.7532690032416</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>367.4955014256591</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>178.7474683267465</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>53.47524218449921</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.60419068891494</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1894046358364791</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.413615359402563</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.45923474087008</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>72.58399644457891</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>170.6426059097612</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>280.4182208469522</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>358.8387780697229</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>378.3451785652581</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>369.3489758620306</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>341.153560072646</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>291.9158067408335</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>202.1073734132455</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>108.5249233418643</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.06273312704283</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.31272017199277</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1316517468765036</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307151</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
@@ -35416,22 +35416,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>590.9472947965072</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
@@ -35653,19 +35653,19 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>803.4886170813098</v>
       </c>
       <c r="O14" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>318.3309425707625</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35732,7 +35732,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004592</v>
@@ -35744,7 +35744,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>404.727924322443</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -35969,7 +35969,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306632</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>258.3236387357542</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36127,22 +36127,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>600.7283960894844</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36364,19 +36364,19 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>591.7850509906391</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>522.8453671356525</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597715</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36446,7 +36446,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>265.599556509082</v>
+        <v>275.6377970070074</v>
       </c>
       <c r="K26" t="n">
-        <v>449.3159141560222</v>
+        <v>464.3606345170052</v>
       </c>
       <c r="L26" t="n">
-        <v>594.6906296686909</v>
+        <v>613.3549356216663</v>
       </c>
       <c r="M26" t="n">
-        <v>998.2650306858974</v>
+        <v>714.4648774745424</v>
       </c>
       <c r="N26" t="n">
-        <v>709.5823999744746</v>
+        <v>730.6860786459845</v>
       </c>
       <c r="O26" t="n">
-        <v>656.5685780519761</v>
+        <v>829.0119049589144</v>
       </c>
       <c r="P26" t="n">
-        <v>525.5165952993236</v>
+        <v>542.524345415258</v>
       </c>
       <c r="Q26" t="n">
-        <v>345.9817373975435</v>
+        <v>358.7538494294772</v>
       </c>
       <c r="R26" t="n">
-        <v>114.9830177379447</v>
+        <v>122.4124599939756</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>139.1813500985072</v>
+        <v>145.1600573702396</v>
       </c>
       <c r="K27" t="n">
-        <v>316.8273631965433</v>
+        <v>327.0459261984176</v>
       </c>
       <c r="L27" t="n">
-        <v>472.8039343540998</v>
+        <v>133.3349539793009</v>
       </c>
       <c r="M27" t="n">
-        <v>571.2922827635623</v>
+        <v>587.3263535628744</v>
       </c>
       <c r="N27" t="n">
-        <v>463.600122474561</v>
+        <v>617.4253212811581</v>
       </c>
       <c r="O27" t="n">
-        <v>527.3230458661441</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>415.7788615889114</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.5137273396376</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>33.06796436278259</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.53257698556095</v>
+        <v>77.28342579308841</v>
       </c>
       <c r="K28" t="n">
-        <v>251.9849322150772</v>
+        <v>258.1487290210694</v>
       </c>
       <c r="L28" t="n">
-        <v>378.5412655393352</v>
+        <v>386.428803330039</v>
       </c>
       <c r="M28" t="n">
-        <v>409.6127528412048</v>
+        <v>417.9290555270987</v>
       </c>
       <c r="N28" t="n">
-        <v>405.3625886453855</v>
+        <v>413.4811482412592</v>
       </c>
       <c r="O28" t="n">
-        <v>358.2398841729481</v>
+        <v>365.7386879866857</v>
       </c>
       <c r="P28" t="n">
-        <v>282.7778438846848</v>
+        <v>289.194366005727</v>
       </c>
       <c r="Q28" t="n">
-        <v>111.5028628391729</v>
+        <v>115.9453301615512</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>265.599556509082</v>
+        <v>275.6377970070074</v>
       </c>
       <c r="K29" t="n">
-        <v>449.3159141560222</v>
+        <v>464.3606345170052</v>
       </c>
       <c r="L29" t="n">
-        <v>594.6906296686909</v>
+        <v>613.3549356216663</v>
       </c>
       <c r="M29" t="n">
-        <v>998.2650306858974</v>
+        <v>714.4648774745424</v>
       </c>
       <c r="N29" t="n">
-        <v>709.5823999744746</v>
+        <v>730.6860786459845</v>
       </c>
       <c r="O29" t="n">
-        <v>656.5685780519761</v>
+        <v>676.4961833916109</v>
       </c>
       <c r="P29" t="n">
-        <v>525.5165952993236</v>
+        <v>695.0400669825616</v>
       </c>
       <c r="Q29" t="n">
-        <v>345.9817373975435</v>
+        <v>358.7538494294772</v>
       </c>
       <c r="R29" t="n">
-        <v>114.9830177379447</v>
+        <v>122.4124599939756</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>139.1813500985072</v>
+        <v>145.1600573702396</v>
       </c>
       <c r="K30" t="n">
-        <v>316.8273631965433</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>472.8039343540998</v>
+        <v>486.5440533591188</v>
       </c>
       <c r="M30" t="n">
-        <v>571.2922827635623</v>
+        <v>587.3263535628744</v>
       </c>
       <c r="N30" t="n">
-        <v>587.2282841528748</v>
+        <v>48.88284052943696</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>542.3793075703207</v>
       </c>
       <c r="P30" t="n">
-        <v>403.6948841878303</v>
+        <v>415.7788615889114</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.5137273396376</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>33.06796436278259</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.53257698556095</v>
+        <v>77.28342579308841</v>
       </c>
       <c r="K31" t="n">
-        <v>251.9849322150772</v>
+        <v>258.1487290210694</v>
       </c>
       <c r="L31" t="n">
-        <v>378.5412655393352</v>
+        <v>386.428803330039</v>
       </c>
       <c r="M31" t="n">
-        <v>409.6127528412048</v>
+        <v>417.9290555270987</v>
       </c>
       <c r="N31" t="n">
-        <v>405.3625886453855</v>
+        <v>413.4811482412592</v>
       </c>
       <c r="O31" t="n">
-        <v>358.2398841729481</v>
+        <v>365.7386879866857</v>
       </c>
       <c r="P31" t="n">
-        <v>282.7778438846848</v>
+        <v>289.194366005727</v>
       </c>
       <c r="Q31" t="n">
-        <v>111.5028628391729</v>
+        <v>115.9453301615512</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>265.599556509083</v>
+        <v>275.6377970070074</v>
       </c>
       <c r="K32" t="n">
-        <v>753.8837039668005</v>
+        <v>464.3606345170052</v>
       </c>
       <c r="L32" t="n">
-        <v>594.6906296686925</v>
+        <v>613.3549356216663</v>
       </c>
       <c r="M32" t="n">
-        <v>693.6972408751088</v>
+        <v>714.4648774745424</v>
       </c>
       <c r="N32" t="n">
-        <v>709.5823999744766</v>
+        <v>883.2018002132878</v>
       </c>
       <c r="O32" t="n">
-        <v>656.568578051978</v>
+        <v>676.4961833916109</v>
       </c>
       <c r="P32" t="n">
-        <v>525.516595299325</v>
+        <v>542.524345415258</v>
       </c>
       <c r="Q32" t="n">
-        <v>345.9817373975446</v>
+        <v>358.7538494294772</v>
       </c>
       <c r="R32" t="n">
-        <v>114.9830177379454</v>
+        <v>122.4124599939756</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>25.46440257021247</v>
       </c>
       <c r="K33" t="n">
-        <v>316.8273631965443</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>486.5440533591188</v>
       </c>
       <c r="M33" t="n">
-        <v>571.2922827635639</v>
+        <v>587.3263535628744</v>
       </c>
       <c r="N33" t="n">
-        <v>452.4546142770204</v>
+        <v>617.4253212811581</v>
       </c>
       <c r="O33" t="n">
-        <v>527.3230458661454</v>
+        <v>542.3793075703207</v>
       </c>
       <c r="P33" t="n">
-        <v>403.6948841878315</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>219.4359084623113</v>
+        <v>227.5137273396376</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.53257698556129</v>
+        <v>77.28342579308841</v>
       </c>
       <c r="K34" t="n">
-        <v>251.9849322150778</v>
+        <v>258.1487290210694</v>
       </c>
       <c r="L34" t="n">
-        <v>378.5412655393359</v>
+        <v>386.428803330039</v>
       </c>
       <c r="M34" t="n">
-        <v>409.6127528412056</v>
+        <v>417.9290555270987</v>
       </c>
       <c r="N34" t="n">
-        <v>405.3625886453863</v>
+        <v>413.4811482412592</v>
       </c>
       <c r="O34" t="n">
-        <v>358.2398841729488</v>
+        <v>365.7386879866857</v>
       </c>
       <c r="P34" t="n">
-        <v>282.7778438846854</v>
+        <v>289.194366005727</v>
       </c>
       <c r="Q34" t="n">
-        <v>111.5028628391733</v>
+        <v>115.9453301615512</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607202</v>
+        <v>275.6377970070074</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380626</v>
+        <v>464.3606345170052</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664393</v>
+        <v>613.3549356216663</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020583</v>
+        <v>714.4648774745424</v>
       </c>
       <c r="N35" t="n">
-        <v>744.73230092637</v>
+        <v>730.6860786459845</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870085</v>
+        <v>829.0119049589135</v>
       </c>
       <c r="P35" t="n">
-        <v>553.844392613483</v>
+        <v>542.524345415258</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404112</v>
+        <v>358.7538494294772</v>
       </c>
       <c r="R35" t="n">
-        <v>178.6700086136723</v>
+        <v>122.4124599939756</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>145.1600573702396</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>49.3216378597757</v>
+        <v>486.5440533591188</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284119</v>
+        <v>587.3263535628744</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>617.4253212811581</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839152</v>
+        <v>389.6156884075111</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426738</v>
+        <v>227.5137273396376</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>33.06796436278259</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066052</v>
+        <v>77.28342579308841</v>
       </c>
       <c r="K37" t="n">
-        <v>262.2512393642057</v>
+        <v>258.1487290210694</v>
       </c>
       <c r="L37" t="n">
-        <v>391.678604124378</v>
+        <v>386.428803330039</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883428</v>
+        <v>417.9290555270987</v>
       </c>
       <c r="N37" t="n">
-        <v>418.8847129209119</v>
+        <v>413.4811482412592</v>
       </c>
       <c r="O37" t="n">
-        <v>370.729754560636</v>
+        <v>365.7386879866857</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931359</v>
+        <v>289.194366005727</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044799</v>
+        <v>115.9453301615512</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607202</v>
+        <v>275.6377970070074</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380626</v>
+        <v>464.3606345170052</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7775560664393</v>
+        <v>613.3549356216663</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020583</v>
+        <v>714.4648774745424</v>
       </c>
       <c r="N38" t="n">
-        <v>744.73230092637</v>
+        <v>730.6860786459845</v>
       </c>
       <c r="O38" t="n">
-        <v>741.0722806160973</v>
+        <v>676.4961833916109</v>
       </c>
       <c r="P38" t="n">
-        <v>553.844392613483</v>
+        <v>695.0400669825607</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404112</v>
+        <v>358.7538494294772</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845842</v>
+        <v>122.4124599939756</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>139.2961589332274</v>
+        <v>145.1600573702396</v>
       </c>
       <c r="K39" t="n">
-        <v>333.8472147104634</v>
+        <v>327.0459261984176</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>486.5440533591188</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284119</v>
+        <v>536.6769952335312</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981761</v>
+        <v>542.3793075703207</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>415.7788615889114</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>33.06796436278259</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066052</v>
+        <v>77.28342579308841</v>
       </c>
       <c r="K40" t="n">
-        <v>262.2512393642057</v>
+        <v>258.1487290210694</v>
       </c>
       <c r="L40" t="n">
-        <v>391.678604124378</v>
+        <v>386.428803330039</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883428</v>
+        <v>417.9290555270987</v>
       </c>
       <c r="N40" t="n">
-        <v>418.8847129209161</v>
+        <v>413.4811482412592</v>
       </c>
       <c r="O40" t="n">
-        <v>370.729754560636</v>
+        <v>365.7386879866857</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931359</v>
+        <v>289.194366005727</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044799</v>
+        <v>115.9453301615512</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607227</v>
+        <v>275.6377970070074</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380663</v>
+        <v>464.3606345170052</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7775560664438</v>
+        <v>613.3549356216663</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020634</v>
+        <v>714.4648774745424</v>
       </c>
       <c r="N41" t="n">
-        <v>744.7323009263753</v>
+        <v>883.2018002132878</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870135</v>
+        <v>676.4961833916109</v>
       </c>
       <c r="P41" t="n">
-        <v>553.8443926134871</v>
+        <v>542.524345415258</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404144</v>
+        <v>358.7538494294772</v>
       </c>
       <c r="R41" t="n">
-        <v>178.6700086136392</v>
+        <v>122.4124599939756</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>210.3443242916505</v>
+        <v>327.0459261984176</v>
       </c>
       <c r="L42" t="n">
-        <v>495.6892250947017</v>
+        <v>486.5440533591188</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284158</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094347</v>
+        <v>617.4253212811581</v>
       </c>
       <c r="O42" t="n">
-        <v>552.4004797981798</v>
+        <v>379.2773115532961</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>415.7788615889114</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.5137273396376</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>33.06796436278259</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066146</v>
+        <v>77.28342579308841</v>
       </c>
       <c r="K43" t="n">
-        <v>262.2512393642073</v>
+        <v>258.1487290210694</v>
       </c>
       <c r="L43" t="n">
-        <v>391.6786041243799</v>
+        <v>386.428803330039</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883449</v>
+        <v>417.9290555270987</v>
       </c>
       <c r="N43" t="n">
-        <v>418.8847129209181</v>
+        <v>413.4811482412592</v>
       </c>
       <c r="O43" t="n">
-        <v>370.7297545606378</v>
+        <v>365.7386879866857</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931375</v>
+        <v>289.194366005727</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.902155104481</v>
+        <v>115.9453301615512</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>275.6377970070074</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>464.3606345170052</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>613.3549356216663</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>714.4648774745424</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>730.6860786459845</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>676.4961833916109</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>695.0400669825616</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>358.7538494294772</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>122.4124599939756</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>327.0459261984176</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>486.5440533591188</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>379.2773115532961</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>617.4253212811581</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121313</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>415.7788615889114</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.5137273396376</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>33.06796436278259</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>77.28342579308841</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>258.1487290210694</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>386.428803330039</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>417.9290555270987</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>413.4811482412592</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>365.7386879866857</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>289.194366005727</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>115.9453301615512</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
